--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -5900,9 +5900,6 @@
     <t>[In AddressBookFlaggedPropertyValue Structure] [Flag]The flag MUST be set to one of the values [0x0, 0x1, 0xA] in the following table.</t>
   </si>
   <si>
-    <t xml:space="preserve">[In AddressBookFlaggedPropertyValue Structure] [Flag value 0xA] This value [0xA] indicates why the property value is not present. </t>
-  </si>
-  <si>
     <t>[In AddressBookFlaggedPropertyValue Structure] [Flag value 0xA] For details about property error codes, see [MS-OXCDATA] section 2.4.2.</t>
   </si>
   <si>
@@ -8836,6 +8833,9 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] If the type of the returned property is PtypObject or PtypEmbeddedTable ([MS-OXCDATA] section 2.11.1), implementation will return value 1 for the X-ResponseCode header.  (Exchange 2013 SP1 follows this behavior.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In AddressBookFlaggedPropertyValue Structure] [Flag value 0xA] This value [PtypErrorCode] indicates why the property value is not present. </t>
   </si>
 </sst>
 </file>
@@ -9108,6 +9108,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9132,70 +9147,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -9534,6 +9490,50 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9663,34 +9663,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1313" tableType="xml" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1313" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1313"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="24">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="23">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="22">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="21">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="20">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="19">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="18">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="17">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="16">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -9699,12 +9699,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="10"/>
-    <tableColumn id="2" name="Test" dataDxfId="9"/>
-    <tableColumn id="3" name="Description" dataDxfId="8"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10034,7 +10034,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -10088,127 +10090,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10221,12 +10223,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10239,12 +10241,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10257,12 +10259,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10275,60 +10277,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -10514,7 +10516,7 @@
     </row>
     <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A26" s="22" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>1099</v>
@@ -10539,7 +10541,7 @@
     </row>
     <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A27" s="22" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>1099</v>
@@ -10564,7 +10566,7 @@
     </row>
     <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A28" s="22" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>1099</v>
@@ -10589,7 +10591,7 @@
     </row>
     <row r="29" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A29" s="22" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>1099</v>
@@ -10614,7 +10616,7 @@
     </row>
     <row r="30" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A30" s="22" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>1099</v>
@@ -10639,7 +10641,7 @@
     </row>
     <row r="31" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A31" s="22" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>1099</v>
@@ -10658,13 +10660,13 @@
         <v>15</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A32" s="22" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>1099</v>
@@ -10689,7 +10691,7 @@
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A33" s="22" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>1099</v>
@@ -10714,7 +10716,7 @@
     </row>
     <row r="34" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A34" s="22" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>1099</v>
@@ -10739,7 +10741,7 @@
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A35" s="22" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>1099</v>
@@ -10758,13 +10760,13 @@
         <v>15</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A36" s="22" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>1099</v>
@@ -10783,13 +10785,13 @@
         <v>15</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A37" s="22" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>1100</v>
@@ -10814,7 +10816,7 @@
     </row>
     <row r="38" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A38" s="22" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>1100</v>
@@ -10839,7 +10841,7 @@
     </row>
     <row r="39" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A39" s="22" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>1100</v>
@@ -10864,7 +10866,7 @@
     </row>
     <row r="40" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A40" s="22" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>1100</v>
@@ -10964,7 +10966,7 @@
     </row>
     <row r="44" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A44" s="22" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>1865</v>
@@ -10989,7 +10991,7 @@
     </row>
     <row r="45" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A45" s="22" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>1865</v>
@@ -11014,7 +11016,7 @@
     </row>
     <row r="46" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A46" s="22" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>1865</v>
@@ -11039,7 +11041,7 @@
     </row>
     <row r="47" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A47" s="22" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>1871</v>
@@ -11064,7 +11066,7 @@
     </row>
     <row r="48" spans="1:9" s="23" customFormat="1">
       <c r="A48" s="22" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>1871</v>
@@ -11089,7 +11091,7 @@
     </row>
     <row r="49" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A49" s="22" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>1871</v>
@@ -11114,7 +11116,7 @@
     </row>
     <row r="50" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A50" s="22" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>1871</v>
@@ -11139,7 +11141,7 @@
     </row>
     <row r="51" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A51" s="22" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>1871</v>
@@ -11164,7 +11166,7 @@
     </row>
     <row r="52" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A52" s="22" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>1871</v>
@@ -11189,7 +11191,7 @@
     </row>
     <row r="53" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A53" s="22" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>1871</v>
@@ -11214,13 +11216,13 @@
     </row>
     <row r="54" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A54" s="22" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>1871</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>1880</v>
+        <v>2850</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22" t="s">
@@ -11230,22 +11232,22 @@
         <v>6</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A55" s="22" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>1871</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="22" t="s">
@@ -11264,7 +11266,7 @@
     </row>
     <row r="56" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A56" s="22" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B56" s="24" t="s">
         <v>1871</v>
@@ -11289,13 +11291,13 @@
     </row>
     <row r="57" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A57" s="22" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B57" s="24" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>1882</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>1883</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="22" t="s">
@@ -11314,13 +11316,13 @@
     </row>
     <row r="58" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A58" s="22" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22" t="s">
@@ -11339,13 +11341,13 @@
     </row>
     <row r="59" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A59" s="22" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22" t="s">
@@ -11364,13 +11366,13 @@
     </row>
     <row r="60" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A60" s="22" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
@@ -11389,13 +11391,13 @@
     </row>
     <row r="61" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A61" s="22" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="22" t="s">
@@ -11414,13 +11416,13 @@
     </row>
     <row r="62" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A62" s="22" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="22" t="s">
@@ -11439,13 +11441,13 @@
     </row>
     <row r="63" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A63" s="22" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="22" t="s">
@@ -11467,7 +11469,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>1233</v>
@@ -11492,7 +11494,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>1234</v>
@@ -11517,7 +11519,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>1235</v>
@@ -11542,10 +11544,10 @@
         <v>54</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>1890</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>1891</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22" t="s">
@@ -11567,10 +11569,10 @@
         <v>55</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22" t="s">
@@ -11592,10 +11594,10 @@
         <v>56</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
@@ -11617,10 +11619,10 @@
         <v>57</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29" t="s">
@@ -11642,10 +11644,10 @@
         <v>58</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="29" t="s">
@@ -11664,10 +11666,10 @@
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="22" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>1236</v>
@@ -11689,13 +11691,13 @@
     </row>
     <row r="73" spans="1:9" ht="30">
       <c r="A73" s="22" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="22" t="s">
@@ -11717,10 +11719,10 @@
         <v>59</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C74" s="20" t="s">
         <v>1897</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>1898</v>
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="29" t="s">
@@ -11742,10 +11744,10 @@
         <v>60</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="29" t="s">
@@ -11767,10 +11769,10 @@
         <v>61</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29" t="s">
@@ -11792,10 +11794,10 @@
         <v>62</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="29" t="s">
@@ -12199,7 +12201,7 @@
         <v>1104</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29" t="s">
@@ -12224,7 +12226,7 @@
         <v>1104</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="29" t="s">
@@ -12299,7 +12301,7 @@
         <v>1104</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="29" t="s">
@@ -12936,7 +12938,7 @@
         <v>1109</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="29" t="s">
@@ -12955,13 +12957,13 @@
     </row>
     <row r="123" spans="1:9" ht="30">
       <c r="A123" s="22" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>1109</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="22" t="s">
@@ -12980,13 +12982,13 @@
     </row>
     <row r="124" spans="1:9" ht="30">
       <c r="A124" s="22" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>1109</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="22" t="s">
@@ -13955,7 +13957,7 @@
         <v>1114</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29" t="s">
@@ -14063,7 +14065,7 @@
         <v>1115</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29" t="s">
@@ -14090,7 +14092,7 @@
         <v>1115</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D166" s="29" t="s">
         <v>1785</v>
@@ -14117,7 +14119,7 @@
         <v>1115</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="29" t="s">
@@ -14144,7 +14146,7 @@
         <v>1115</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D168" s="29" t="s">
         <v>1786</v>
@@ -14165,13 +14167,13 @@
     </row>
     <row r="169" spans="1:9" ht="30">
       <c r="A169" s="22" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B169" s="30" t="s">
         <v>1115</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="22" t="s">
@@ -14190,13 +14192,13 @@
     </row>
     <row r="170" spans="1:9" ht="30">
       <c r="A170" s="22" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>1115</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="22" t="s">
@@ -14584,7 +14586,7 @@
         <v>15</v>
       </c>
       <c r="H185" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I185" s="31"/>
     </row>
@@ -14821,7 +14823,7 @@
         <v>1117</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
@@ -14840,13 +14842,13 @@
     </row>
     <row r="196" spans="1:9" ht="30">
       <c r="A196" s="22" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B196" s="30" t="s">
         <v>1117</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="22" t="s">
@@ -14865,13 +14867,13 @@
     </row>
     <row r="197" spans="1:9" ht="30">
       <c r="A197" s="22" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B197" s="30" t="s">
         <v>1117</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D197" s="29"/>
       <c r="E197" s="22" t="s">
@@ -14890,13 +14892,13 @@
     </row>
     <row r="198" spans="1:9" ht="30">
       <c r="A198" s="22" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B198" s="30" t="s">
         <v>1117</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="22" t="s">
@@ -14915,13 +14917,13 @@
     </row>
     <row r="199" spans="1:9" ht="30">
       <c r="A199" s="22" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B199" s="30" t="s">
         <v>1117</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D199" s="29"/>
       <c r="E199" s="22" t="s">
@@ -14940,13 +14942,13 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="22" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>1117</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D200" s="29"/>
       <c r="E200" s="22" t="s">
@@ -14971,7 +14973,7 @@
         <v>1117</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -14996,7 +14998,7 @@
         <v>1118</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D202" s="29"/>
       <c r="E202" s="29" t="s">
@@ -15021,7 +15023,7 @@
         <v>1118</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D203" s="29"/>
       <c r="E203" s="29" t="s">
@@ -15046,7 +15048,7 @@
         <v>1118</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D204" s="29"/>
       <c r="E204" s="29" t="s">
@@ -15071,7 +15073,7 @@
         <v>1118</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D205" s="29"/>
       <c r="E205" s="29" t="s">
@@ -15196,7 +15198,7 @@
         <v>1120</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="D210" s="29"/>
       <c r="E210" s="29" t="s">
@@ -15271,7 +15273,7 @@
         <v>1122</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D213" s="29"/>
       <c r="E213" s="29" t="s">
@@ -15296,7 +15298,7 @@
         <v>1122</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="29" t="s">
@@ -15321,7 +15323,7 @@
         <v>1123</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D215" s="29"/>
       <c r="E215" s="29" t="s">
@@ -15346,7 +15348,7 @@
         <v>1123</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D216" s="29"/>
       <c r="E216" s="29" t="s">
@@ -15365,13 +15367,13 @@
     </row>
     <row r="217" spans="1:9" ht="30">
       <c r="A217" s="22" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B217" s="30" t="s">
         <v>1123</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D217" s="29"/>
       <c r="E217" s="22" t="s">
@@ -15390,13 +15392,13 @@
     </row>
     <row r="218" spans="1:9" ht="45">
       <c r="A218" s="22" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="22" t="s">
@@ -15415,13 +15417,13 @@
     </row>
     <row r="219" spans="1:9" ht="30">
       <c r="A219" s="22" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D219" s="29"/>
       <c r="E219" s="22" t="s">
@@ -15440,13 +15442,13 @@
     </row>
     <row r="220" spans="1:9" ht="30">
       <c r="A220" s="22" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D220" s="29"/>
       <c r="E220" s="22" t="s">
@@ -15465,13 +15467,13 @@
     </row>
     <row r="221" spans="1:9" ht="30">
       <c r="A221" s="22" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D221" s="29"/>
       <c r="E221" s="22" t="s">
@@ -15490,13 +15492,13 @@
     </row>
     <row r="222" spans="1:9" ht="30">
       <c r="A222" s="22" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D222" s="29"/>
       <c r="E222" s="22" t="s">
@@ -15515,13 +15517,13 @@
     </row>
     <row r="223" spans="1:9" ht="30">
       <c r="A223" s="22" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D223" s="29"/>
       <c r="E223" s="22" t="s">
@@ -15540,13 +15542,13 @@
     </row>
     <row r="224" spans="1:9" ht="30">
       <c r="A224" s="22" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D224" s="29"/>
       <c r="E224" s="22" t="s">
@@ -15565,13 +15567,13 @@
     </row>
     <row r="225" spans="1:9" ht="30">
       <c r="A225" s="22" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D225" s="29"/>
       <c r="E225" s="22" t="s">
@@ -15590,13 +15592,13 @@
     </row>
     <row r="226" spans="1:9" ht="45">
       <c r="A226" s="22" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B226" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D226" s="29"/>
       <c r="E226" s="22" t="s">
@@ -15615,13 +15617,13 @@
     </row>
     <row r="227" spans="1:9" ht="30">
       <c r="A227" s="22" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B227" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D227" s="29"/>
       <c r="E227" s="22" t="s">
@@ -15640,13 +15642,13 @@
     </row>
     <row r="228" spans="1:9" ht="30">
       <c r="A228" s="22" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B228" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D228" s="29"/>
       <c r="E228" s="22" t="s">
@@ -15921,7 +15923,7 @@
         <v>1125</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D239" s="29"/>
       <c r="E239" s="29" t="s">
@@ -15940,13 +15942,13 @@
     </row>
     <row r="240" spans="1:9" ht="30">
       <c r="A240" s="22" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B240" s="30" t="s">
         <v>1125</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D240" s="29"/>
       <c r="E240" s="29" t="s">
@@ -15971,7 +15973,7 @@
         <v>1125</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D241" s="29"/>
       <c r="E241" s="29" t="s">
@@ -15990,13 +15992,13 @@
     </row>
     <row r="242" spans="1:9" ht="30">
       <c r="A242" s="22" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B242" s="30" t="s">
         <v>1125</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D242" s="29"/>
       <c r="E242" s="22" t="s">
@@ -16021,7 +16023,7 @@
         <v>1125</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
@@ -16040,13 +16042,13 @@
     </row>
     <row r="244" spans="1:9" ht="30">
       <c r="A244" s="22" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B244" s="30" t="s">
         <v>1125</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D244" s="29"/>
       <c r="E244" s="22" t="s">
@@ -16071,7 +16073,7 @@
         <v>1125</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
@@ -16090,13 +16092,13 @@
     </row>
     <row r="246" spans="1:9" ht="30">
       <c r="A246" s="22" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B246" s="30" t="s">
         <v>1125</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D246" s="29"/>
       <c r="E246" s="22" t="s">
@@ -16121,7 +16123,7 @@
         <v>1125</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D247" s="29"/>
       <c r="E247" s="29" t="s">
@@ -16140,13 +16142,13 @@
     </row>
     <row r="248" spans="1:9" ht="30">
       <c r="A248" s="22" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B248" s="30" t="s">
         <v>1125</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D248" s="29"/>
       <c r="E248" s="22" t="s">
@@ -16171,7 +16173,7 @@
         <v>1125</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D249" s="29"/>
       <c r="E249" s="29" t="s">
@@ -16190,13 +16192,13 @@
     </row>
     <row r="250" spans="1:9" ht="30">
       <c r="A250" s="22" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B250" s="30" t="s">
         <v>1125</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D250" s="29"/>
       <c r="E250" s="22" t="s">
@@ -16221,7 +16223,7 @@
         <v>1125</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D251" s="29"/>
       <c r="E251" s="29" t="s">
@@ -16265,13 +16267,13 @@
     </row>
     <row r="253" spans="1:9" ht="30">
       <c r="A253" s="22" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B253" s="30" t="s">
         <v>1125</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D253" s="29"/>
       <c r="E253" s="22" t="s">
@@ -16346,7 +16348,7 @@
         <v>1126</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D256" s="29"/>
       <c r="E256" s="29" t="s">
@@ -16396,7 +16398,7 @@
         <v>1126</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D258" s="29"/>
       <c r="E258" s="29" t="s">
@@ -16448,7 +16450,7 @@
         <v>1126</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D260" s="29"/>
       <c r="E260" s="29" t="s">
@@ -16467,13 +16469,13 @@
     </row>
     <row r="261" spans="1:9" ht="30">
       <c r="A261" s="22" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B261" s="30" t="s">
         <v>1126</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D261" s="29"/>
       <c r="E261" s="22" t="s">
@@ -16498,7 +16500,7 @@
         <v>1126</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D262" s="29"/>
       <c r="E262" s="29" t="s">
@@ -16517,13 +16519,13 @@
     </row>
     <row r="263" spans="1:9" ht="30">
       <c r="A263" s="22" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B263" s="30" t="s">
         <v>1126</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D263" s="29"/>
       <c r="E263" s="22" t="s">
@@ -16548,7 +16550,7 @@
         <v>1126</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D264" s="29"/>
       <c r="E264" s="29" t="s">
@@ -16567,13 +16569,13 @@
     </row>
     <row r="265" spans="1:9" ht="30">
       <c r="A265" s="22" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B265" s="30" t="s">
         <v>1126</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D265" s="29"/>
       <c r="E265" s="22" t="s">
@@ -16598,7 +16600,7 @@
         <v>1126</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D266" s="29"/>
       <c r="E266" s="29" t="s">
@@ -16617,13 +16619,13 @@
     </row>
     <row r="267" spans="1:9" ht="30">
       <c r="A267" s="22" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B267" s="30" t="s">
         <v>1126</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D267" s="29"/>
       <c r="E267" s="22" t="s">
@@ -16648,7 +16650,7 @@
         <v>1126</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D268" s="29"/>
       <c r="E268" s="29" t="s">
@@ -16667,13 +16669,13 @@
     </row>
     <row r="269" spans="1:9" ht="30">
       <c r="A269" s="22" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B269" s="30" t="s">
         <v>1126</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D269" s="29"/>
       <c r="E269" s="22" t="s">
@@ -16698,7 +16700,7 @@
         <v>1126</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D270" s="29"/>
       <c r="E270" s="29" t="s">
@@ -16717,13 +16719,13 @@
     </row>
     <row r="271" spans="1:9" ht="30">
       <c r="A271" s="22" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B271" s="30" t="s">
         <v>1126</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D271" s="29"/>
       <c r="E271" s="22" t="s">
@@ -16748,7 +16750,7 @@
         <v>1126</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D272" s="29"/>
       <c r="E272" s="29" t="s">
@@ -16792,13 +16794,13 @@
     </row>
     <row r="274" spans="1:9" ht="30">
       <c r="A274" s="22" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B274" s="30" t="s">
         <v>1126</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D274" s="29"/>
       <c r="E274" s="22" t="s">
@@ -16823,7 +16825,7 @@
         <v>1127</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D275" s="29"/>
       <c r="E275" s="29" t="s">
@@ -16848,7 +16850,7 @@
         <v>1127</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D276" s="29"/>
       <c r="E276" s="29" t="s">
@@ -16873,7 +16875,7 @@
         <v>1127</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D277" s="29"/>
       <c r="E277" s="29" t="s">
@@ -16898,7 +16900,7 @@
         <v>1127</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D278" s="29"/>
       <c r="E278" s="29" t="s">
@@ -16923,7 +16925,7 @@
         <v>1127</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -16948,7 +16950,7 @@
         <v>1127</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="29" t="s">
@@ -16973,7 +16975,7 @@
         <v>1127</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D281" s="29"/>
       <c r="E281" s="29" t="s">
@@ -16992,13 +16994,13 @@
     </row>
     <row r="282" spans="1:9" ht="30">
       <c r="A282" s="22" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B282" s="30" t="s">
         <v>1127</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D282" s="29"/>
       <c r="E282" s="22" t="s">
@@ -17098,7 +17100,7 @@
         <v>1129</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
@@ -17117,13 +17119,13 @@
     </row>
     <row r="287" spans="1:9" ht="30">
       <c r="A287" s="22" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B287" s="30" t="s">
         <v>1129</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D287" s="29"/>
       <c r="E287" s="22" t="s">
@@ -17148,7 +17150,7 @@
         <v>1129</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D288" s="29"/>
       <c r="E288" s="29" t="s">
@@ -17167,13 +17169,13 @@
     </row>
     <row r="289" spans="1:9" ht="30">
       <c r="A289" s="22" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B289" s="30" t="s">
         <v>1129</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D289" s="29"/>
       <c r="E289" s="22" t="s">
@@ -17198,7 +17200,7 @@
         <v>1129</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D290" s="29"/>
       <c r="E290" s="29" t="s">
@@ -17242,13 +17244,13 @@
     </row>
     <row r="292" spans="1:9" ht="30">
       <c r="A292" s="22" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B292" s="30" t="s">
         <v>1129</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D292" s="29"/>
       <c r="E292" s="22" t="s">
@@ -17273,7 +17275,7 @@
         <v>1129</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D293" s="29"/>
       <c r="E293" s="29" t="s">
@@ -17292,13 +17294,13 @@
     </row>
     <row r="294" spans="1:9" ht="30">
       <c r="A294" s="22" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B294" s="30" t="s">
         <v>1129</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D294" s="29"/>
       <c r="E294" s="22" t="s">
@@ -17323,7 +17325,7 @@
         <v>1129</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
@@ -17342,13 +17344,13 @@
     </row>
     <row r="296" spans="1:9" ht="30">
       <c r="A296" s="22" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B296" s="30" t="s">
         <v>1129</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="22" t="s">
@@ -17373,7 +17375,7 @@
         <v>1129</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D297" s="29"/>
       <c r="E297" s="29" t="s">
@@ -17417,13 +17419,13 @@
     </row>
     <row r="299" spans="1:9" ht="30">
       <c r="A299" s="22" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B299" s="30" t="s">
         <v>1129</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D299" s="29"/>
       <c r="E299" s="22" t="s">
@@ -17498,7 +17500,7 @@
         <v>1130</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D302" s="29"/>
       <c r="E302" s="29" t="s">
@@ -17548,7 +17550,7 @@
         <v>1130</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D304" s="29"/>
       <c r="E304" s="29" t="s">
@@ -17625,7 +17627,7 @@
         <v>1130</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D307" s="29"/>
       <c r="E307" s="29" t="s">
@@ -17694,13 +17696,13 @@
     </row>
     <row r="310" spans="1:9" ht="30">
       <c r="A310" s="22" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B310" s="30" t="s">
         <v>1130</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D310" s="29"/>
       <c r="E310" s="22" t="s">
@@ -17725,7 +17727,7 @@
         <v>1130</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D311" s="29"/>
       <c r="E311" s="29" t="s">
@@ -17744,13 +17746,13 @@
     </row>
     <row r="312" spans="1:9" ht="30">
       <c r="A312" s="22" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B312" s="30" t="s">
         <v>1130</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D312" s="29"/>
       <c r="E312" s="22" t="s">
@@ -17775,7 +17777,7 @@
         <v>1130</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D313" s="29"/>
       <c r="E313" s="29" t="s">
@@ -17819,13 +17821,13 @@
     </row>
     <row r="315" spans="1:9" ht="30">
       <c r="A315" s="22" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B315" s="30" t="s">
         <v>1130</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D315" s="29"/>
       <c r="E315" s="22" t="s">
@@ -17850,7 +17852,7 @@
         <v>1130</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D316" s="29"/>
       <c r="E316" s="29" t="s">
@@ -17869,13 +17871,13 @@
     </row>
     <row r="317" spans="1:9" ht="30">
       <c r="A317" s="22" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B317" s="30" t="s">
         <v>1130</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D317" s="29"/>
       <c r="E317" s="22" t="s">
@@ -17900,7 +17902,7 @@
         <v>1130</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="29" t="s">
@@ -17944,13 +17946,13 @@
     </row>
     <row r="320" spans="1:9" ht="30">
       <c r="A320" s="22" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B320" s="30" t="s">
         <v>1130</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D320" s="29"/>
       <c r="E320" s="22" t="s">
@@ -18000,7 +18002,7 @@
         <v>1131</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D322" s="29"/>
       <c r="E322" s="29" t="s">
@@ -18025,7 +18027,7 @@
         <v>1131</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D323" s="29"/>
       <c r="E323" s="29" t="s">
@@ -18050,7 +18052,7 @@
         <v>1131</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D324" s="29"/>
       <c r="E324" s="29" t="s">
@@ -18075,7 +18077,7 @@
         <v>1131</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D325" s="29"/>
       <c r="E325" s="29" t="s">
@@ -18100,7 +18102,7 @@
         <v>1131</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D326" s="29"/>
       <c r="E326" s="29" t="s">
@@ -18125,7 +18127,7 @@
         <v>1131</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D327" s="29"/>
       <c r="E327" s="29" t="s">
@@ -18144,13 +18146,13 @@
     </row>
     <row r="328" spans="1:9" ht="30">
       <c r="A328" s="22" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B328" s="30" t="s">
         <v>1131</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D328" s="29"/>
       <c r="E328" s="22" t="s">
@@ -18225,7 +18227,7 @@
         <v>1133</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D331" s="29"/>
       <c r="E331" s="29" t="s">
@@ -18250,7 +18252,7 @@
         <v>1133</v>
       </c>
       <c r="C332" s="20" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D332" s="29"/>
       <c r="E332" s="29" t="s">
@@ -18294,13 +18296,13 @@
     </row>
     <row r="334" spans="1:9" ht="30">
       <c r="A334" s="22" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B334" s="30" t="s">
         <v>1133</v>
       </c>
       <c r="C334" s="20" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D334" s="29"/>
       <c r="E334" s="22" t="s">
@@ -18350,7 +18352,7 @@
         <v>1134</v>
       </c>
       <c r="C336" s="20" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
@@ -18400,7 +18402,7 @@
         <v>1134</v>
       </c>
       <c r="C338" s="20" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D338" s="29"/>
       <c r="E338" s="29" t="s">
@@ -18452,7 +18454,7 @@
         <v>1134</v>
       </c>
       <c r="C340" s="20" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D340" s="29"/>
       <c r="E340" s="29" t="s">
@@ -18477,7 +18479,7 @@
         <v>1134</v>
       </c>
       <c r="C341" s="20" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D341" s="29"/>
       <c r="E341" s="29" t="s">
@@ -18521,13 +18523,13 @@
     </row>
     <row r="343" spans="1:9" ht="45">
       <c r="A343" s="22" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B343" s="30" t="s">
         <v>1134</v>
       </c>
       <c r="C343" s="20" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D343" s="29"/>
       <c r="E343" s="22" t="s">
@@ -18577,7 +18579,7 @@
         <v>1135</v>
       </c>
       <c r="C345" s="20" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D345" s="29"/>
       <c r="E345" s="29" t="s">
@@ -18602,7 +18604,7 @@
         <v>1135</v>
       </c>
       <c r="C346" s="20" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D346" s="29"/>
       <c r="E346" s="29" t="s">
@@ -18627,7 +18629,7 @@
         <v>1135</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D347" s="29"/>
       <c r="E347" s="29" t="s">
@@ -18652,7 +18654,7 @@
         <v>1135</v>
       </c>
       <c r="C348" s="20" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D348" s="29"/>
       <c r="E348" s="29" t="s">
@@ -18677,7 +18679,7 @@
         <v>1135</v>
       </c>
       <c r="C349" s="20" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D349" s="29"/>
       <c r="E349" s="29" t="s">
@@ -18702,7 +18704,7 @@
         <v>1135</v>
       </c>
       <c r="C350" s="20" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D350" s="29"/>
       <c r="E350" s="29" t="s">
@@ -18802,7 +18804,7 @@
         <v>1137</v>
       </c>
       <c r="C354" s="20" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D354" s="29"/>
       <c r="E354" s="29" t="s">
@@ -18871,13 +18873,13 @@
     </row>
     <row r="357" spans="1:9" ht="30">
       <c r="A357" s="22" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B357" s="30" t="s">
         <v>1137</v>
       </c>
       <c r="C357" s="20" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D357" s="29"/>
       <c r="E357" s="22" t="s">
@@ -18902,7 +18904,7 @@
         <v>1137</v>
       </c>
       <c r="C358" s="20" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D358" s="29"/>
       <c r="E358" s="29" t="s">
@@ -18927,7 +18929,7 @@
         <v>1137</v>
       </c>
       <c r="C359" s="20" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D359" s="29"/>
       <c r="E359" s="29" t="s">
@@ -18971,13 +18973,13 @@
     </row>
     <row r="361" spans="1:9" ht="45">
       <c r="A361" s="22" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B361" s="30" t="s">
         <v>1137</v>
       </c>
       <c r="C361" s="20" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D361" s="29"/>
       <c r="E361" s="22" t="s">
@@ -19027,7 +19029,7 @@
         <v>1138</v>
       </c>
       <c r="C363" s="20" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D363" s="29"/>
       <c r="E363" s="29" t="s">
@@ -19077,7 +19079,7 @@
         <v>1138</v>
       </c>
       <c r="C365" s="20" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D365" s="29"/>
       <c r="E365" s="29" t="s">
@@ -19129,7 +19131,7 @@
         <v>1138</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D367" s="29"/>
       <c r="E367" s="29" t="s">
@@ -19198,13 +19200,13 @@
     </row>
     <row r="370" spans="1:9" ht="45">
       <c r="A370" s="22" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B370" s="30" t="s">
         <v>1138</v>
       </c>
       <c r="C370" s="20" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D370" s="29"/>
       <c r="E370" s="22" t="s">
@@ -19229,7 +19231,7 @@
         <v>1138</v>
       </c>
       <c r="C371" s="20" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D371" s="29"/>
       <c r="E371" s="22" t="s">
@@ -19254,7 +19256,7 @@
         <v>1138</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D372" s="29"/>
       <c r="E372" s="22" t="s">
@@ -19279,7 +19281,7 @@
         <v>1138</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D373" s="29"/>
       <c r="E373" s="29" t="s">
@@ -19304,7 +19306,7 @@
         <v>1138</v>
       </c>
       <c r="C374" s="20" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D374" s="29"/>
       <c r="E374" s="29" t="s">
@@ -19348,13 +19350,13 @@
     </row>
     <row r="376" spans="1:9" ht="45">
       <c r="A376" s="22" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B376" s="30" t="s">
         <v>1138</v>
       </c>
       <c r="C376" s="20" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D376" s="29"/>
       <c r="E376" s="22" t="s">
@@ -19404,7 +19406,7 @@
         <v>1139</v>
       </c>
       <c r="C378" s="20" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D378" s="29"/>
       <c r="E378" s="29" t="s">
@@ -19429,7 +19431,7 @@
         <v>1139</v>
       </c>
       <c r="C379" s="20" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D379" s="29"/>
       <c r="E379" s="29" t="s">
@@ -19454,7 +19456,7 @@
         <v>1139</v>
       </c>
       <c r="C380" s="20" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D380" s="29"/>
       <c r="E380" s="29" t="s">
@@ -19479,7 +19481,7 @@
         <v>1139</v>
       </c>
       <c r="C381" s="20" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D381" s="29"/>
       <c r="E381" s="29" t="s">
@@ -19504,7 +19506,7 @@
         <v>1139</v>
       </c>
       <c r="C382" s="20" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D382" s="29"/>
       <c r="E382" s="29" t="s">
@@ -19529,7 +19531,7 @@
         <v>1139</v>
       </c>
       <c r="C383" s="20" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D383" s="29"/>
       <c r="E383" s="29" t="s">
@@ -19804,7 +19806,7 @@
         <v>1142</v>
       </c>
       <c r="C394" s="20" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D394" s="29"/>
       <c r="E394" s="29" t="s">
@@ -19883,7 +19885,7 @@
         <v>1142</v>
       </c>
       <c r="C397" s="20" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D397" s="29"/>
       <c r="E397" s="29" t="s">
@@ -19908,7 +19910,7 @@
         <v>1142</v>
       </c>
       <c r="C398" s="20" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D398" s="29"/>
       <c r="E398" s="29" t="s">
@@ -19958,7 +19960,7 @@
         <v>1142</v>
       </c>
       <c r="C400" s="20" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D400" s="29"/>
       <c r="E400" s="29" t="s">
@@ -19983,7 +19985,7 @@
         <v>1142</v>
       </c>
       <c r="C401" s="20" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D401" s="29"/>
       <c r="E401" s="29" t="s">
@@ -20027,13 +20029,13 @@
     </row>
     <row r="403" spans="1:9" ht="30">
       <c r="A403" s="22" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B403" s="30" t="s">
         <v>1142</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D403" s="29"/>
       <c r="E403" s="22" t="s">
@@ -20083,7 +20085,7 @@
         <v>1143</v>
       </c>
       <c r="C405" s="20" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D405" s="29"/>
       <c r="E405" s="29" t="s">
@@ -20133,7 +20135,7 @@
         <v>1143</v>
       </c>
       <c r="C407" s="20" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D407" s="29"/>
       <c r="E407" s="29" t="s">
@@ -20185,7 +20187,7 @@
         <v>1143</v>
       </c>
       <c r="C409" s="20" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -20210,7 +20212,7 @@
         <v>1143</v>
       </c>
       <c r="C410" s="20" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D410" s="29"/>
       <c r="E410" s="29" t="s">
@@ -20235,7 +20237,7 @@
         <v>1143</v>
       </c>
       <c r="C411" s="20" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D411" s="29"/>
       <c r="E411" s="29" t="s">
@@ -20279,13 +20281,13 @@
     </row>
     <row r="413" spans="1:9" ht="30">
       <c r="A413" s="22" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B413" s="30" t="s">
         <v>1143</v>
       </c>
       <c r="C413" s="20" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D413" s="29"/>
       <c r="E413" s="22" t="s">
@@ -20304,13 +20306,13 @@
     </row>
     <row r="414" spans="1:9" ht="30">
       <c r="A414" s="22" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B414" s="24" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C414" s="20" t="s">
         <v>2049</v>
-      </c>
-      <c r="C414" s="20" t="s">
-        <v>2050</v>
       </c>
       <c r="D414" s="29"/>
       <c r="E414" s="29" t="s">
@@ -20329,13 +20331,13 @@
     </row>
     <row r="415" spans="1:9" ht="30">
       <c r="A415" s="22" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B415" s="24" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D415" s="29"/>
       <c r="E415" s="29" t="s">
@@ -20354,13 +20356,13 @@
     </row>
     <row r="416" spans="1:9" ht="30">
       <c r="A416" s="22" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B416" s="24" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C416" s="20" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="29" t="s">
@@ -20379,13 +20381,13 @@
     </row>
     <row r="417" spans="1:9" ht="30">
       <c r="A417" s="22" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B417" s="24" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C417" s="20" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D417" s="29"/>
       <c r="E417" s="29" t="s">
@@ -20404,13 +20406,13 @@
     </row>
     <row r="418" spans="1:9" ht="30">
       <c r="A418" s="22" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B418" s="24" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C418" s="20" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D418" s="29"/>
       <c r="E418" s="29" t="s">
@@ -20429,13 +20431,13 @@
     </row>
     <row r="419" spans="1:9" ht="30">
       <c r="A419" s="22" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B419" s="24" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C419" s="20" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D419" s="29"/>
       <c r="E419" s="22" t="s">
@@ -20635,7 +20637,7 @@
         <v>1145</v>
       </c>
       <c r="C427" s="20" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D427" s="29"/>
       <c r="E427" s="29" t="s">
@@ -20660,7 +20662,7 @@
         <v>1145</v>
       </c>
       <c r="C428" s="20" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D428" s="29"/>
       <c r="E428" s="29" t="s">
@@ -20704,13 +20706,13 @@
     </row>
     <row r="430" spans="1:9" ht="30">
       <c r="A430" s="22" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B430" s="30" t="s">
         <v>1145</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D430" s="29"/>
       <c r="E430" s="22" t="s">
@@ -20735,7 +20737,7 @@
         <v>1146</v>
       </c>
       <c r="C431" s="20" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D431" s="29"/>
       <c r="E431" s="29" t="s">
@@ -20760,7 +20762,7 @@
         <v>1146</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D432" s="29"/>
       <c r="E432" s="29" t="s">
@@ -20785,7 +20787,7 @@
         <v>1146</v>
       </c>
       <c r="C433" s="20" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D433" s="29"/>
       <c r="E433" s="29" t="s">
@@ -20810,7 +20812,7 @@
         <v>1146</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D434" s="29"/>
       <c r="E434" s="29" t="s">
@@ -20835,7 +20837,7 @@
         <v>1146</v>
       </c>
       <c r="C435" s="20" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D435" s="29"/>
       <c r="E435" s="29" t="s">
@@ -20862,7 +20864,7 @@
         <v>1146</v>
       </c>
       <c r="C436" s="20" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D436" s="29"/>
       <c r="E436" s="29" t="s">
@@ -20887,7 +20889,7 @@
         <v>1146</v>
       </c>
       <c r="C437" s="20" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D437" s="29"/>
       <c r="E437" s="29" t="s">
@@ -20912,7 +20914,7 @@
         <v>1146</v>
       </c>
       <c r="C438" s="20" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D438" s="29"/>
       <c r="E438" s="29" t="s">
@@ -20931,13 +20933,13 @@
     </row>
     <row r="439" spans="1:9" ht="45">
       <c r="A439" s="22" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B439" s="30" t="s">
         <v>1146</v>
       </c>
       <c r="C439" s="20" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D439" s="29"/>
       <c r="E439" s="22" t="s">
@@ -20956,13 +20958,13 @@
     </row>
     <row r="440" spans="1:9" ht="30">
       <c r="A440" s="22" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B440" s="24" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C440" s="20" t="s">
         <v>2068</v>
-      </c>
-      <c r="C440" s="20" t="s">
-        <v>2069</v>
       </c>
       <c r="D440" s="29"/>
       <c r="E440" s="22" t="s">
@@ -20981,13 +20983,13 @@
     </row>
     <row r="441" spans="1:9" ht="30">
       <c r="A441" s="22" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B441" s="24" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -21006,13 +21008,13 @@
     </row>
     <row r="442" spans="1:9" ht="30">
       <c r="A442" s="22" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B442" s="24" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C442" s="20" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="29" t="s">
@@ -21031,13 +21033,13 @@
     </row>
     <row r="443" spans="1:9" ht="30">
       <c r="A443" s="22" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B443" s="24" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C443" s="20" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D443" s="29"/>
       <c r="E443" s="29" t="s">
@@ -21056,13 +21058,13 @@
     </row>
     <row r="444" spans="1:9" ht="30">
       <c r="A444" s="22" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B444" s="24" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C444" s="20" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29" t="s">
@@ -21081,13 +21083,13 @@
     </row>
     <row r="445" spans="1:9" ht="30">
       <c r="A445" s="22" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B445" s="24" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C445" s="20" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D445" s="29"/>
       <c r="E445" s="29" t="s">
@@ -21106,13 +21108,13 @@
     </row>
     <row r="446" spans="1:9" ht="30">
       <c r="A446" s="22" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B446" s="24" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C446" s="20" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D446" s="29"/>
       <c r="E446" s="29" t="s">
@@ -21131,13 +21133,13 @@
     </row>
     <row r="447" spans="1:9" ht="30">
       <c r="A447" s="22" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B447" s="24" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C447" s="20" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D447" s="29"/>
       <c r="E447" s="29" t="s">
@@ -21156,13 +21158,13 @@
     </row>
     <row r="448" spans="1:9" ht="45">
       <c r="A448" s="22" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B448" s="24" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C448" s="20" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D448" s="29"/>
       <c r="E448" s="22" t="s">
@@ -21362,7 +21364,7 @@
         <v>1148</v>
       </c>
       <c r="C456" s="20" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D456" s="29"/>
       <c r="E456" s="29" t="s">
@@ -21387,7 +21389,7 @@
         <v>1148</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -21437,7 +21439,7 @@
         <v>1148</v>
       </c>
       <c r="C459" s="20" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D459" s="29"/>
       <c r="E459" s="29" t="s">
@@ -21462,7 +21464,7 @@
         <v>1148</v>
       </c>
       <c r="C460" s="20" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D460" s="29"/>
       <c r="E460" s="29" t="s">
@@ -21487,7 +21489,7 @@
         <v>1148</v>
       </c>
       <c r="C461" s="20" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D461" s="29"/>
       <c r="E461" s="29" t="s">
@@ -21512,7 +21514,7 @@
         <v>1148</v>
       </c>
       <c r="C462" s="20" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29" t="s">
@@ -21562,7 +21564,7 @@
         <v>1149</v>
       </c>
       <c r="C464" s="20" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D464" s="29"/>
       <c r="E464" s="29" t="s">
@@ -21587,7 +21589,7 @@
         <v>1149</v>
       </c>
       <c r="C465" s="20" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D465" s="29"/>
       <c r="E465" s="29" t="s">
@@ -21612,7 +21614,7 @@
         <v>1149</v>
       </c>
       <c r="C466" s="20" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D466" s="29"/>
       <c r="E466" s="29" t="s">
@@ -21637,7 +21639,7 @@
         <v>1149</v>
       </c>
       <c r="C467" s="20" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D467" s="29"/>
       <c r="E467" s="29" t="s">
@@ -21662,7 +21664,7 @@
         <v>1149</v>
       </c>
       <c r="C468" s="20" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29" t="s">
@@ -21689,7 +21691,7 @@
         <v>1149</v>
       </c>
       <c r="C469" s="20" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D469" s="29"/>
       <c r="E469" s="29" t="s">
@@ -21708,13 +21710,13 @@
     </row>
     <row r="470" spans="1:9" ht="30">
       <c r="A470" s="22" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B470" s="30" t="s">
         <v>1149</v>
       </c>
       <c r="C470" s="20" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D470" s="29"/>
       <c r="E470" s="22" t="s">
@@ -21733,13 +21735,13 @@
     </row>
     <row r="471" spans="1:9" ht="45">
       <c r="A471" s="22" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B471" s="30" t="s">
         <v>1149</v>
       </c>
       <c r="C471" s="20" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D471" s="29"/>
       <c r="E471" s="22" t="s">
@@ -21758,13 +21760,13 @@
     </row>
     <row r="472" spans="1:9" ht="30">
       <c r="A472" s="22" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B472" s="30" t="s">
         <v>1149</v>
       </c>
       <c r="C472" s="20" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D472" s="29"/>
       <c r="E472" s="22" t="s">
@@ -21783,13 +21785,13 @@
     </row>
     <row r="473" spans="1:9" ht="45">
       <c r="A473" s="22" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B473" s="30" t="s">
         <v>1149</v>
       </c>
       <c r="C473" s="20" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D473" s="29"/>
       <c r="E473" s="22" t="s">
@@ -21808,13 +21810,13 @@
     </row>
     <row r="474" spans="1:9" ht="45">
       <c r="A474" s="22" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B474" s="30" t="s">
         <v>1149</v>
       </c>
       <c r="C474" s="20" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D474" s="29"/>
       <c r="E474" s="22" t="s">
@@ -21839,7 +21841,7 @@
         <v>1149</v>
       </c>
       <c r="C475" s="20" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D475" s="29"/>
       <c r="E475" s="29" t="s">
@@ -21864,7 +21866,7 @@
         <v>1149</v>
       </c>
       <c r="C476" s="20" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D476" s="29"/>
       <c r="E476" s="29" t="s">
@@ -21889,7 +21891,7 @@
         <v>1149</v>
       </c>
       <c r="C477" s="20" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D477" s="29"/>
       <c r="E477" s="29" t="s">
@@ -21908,13 +21910,13 @@
     </row>
     <row r="478" spans="1:9" ht="45">
       <c r="A478" s="22" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B478" s="30" t="s">
         <v>1149</v>
       </c>
       <c r="C478" s="20" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D478" s="29"/>
       <c r="E478" s="22" t="s">
@@ -21933,13 +21935,13 @@
     </row>
     <row r="479" spans="1:9" ht="30">
       <c r="A479" s="22" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B479" s="24" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C479" s="20" t="s">
         <v>2099</v>
-      </c>
-      <c r="C479" s="20" t="s">
-        <v>2100</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="22" t="s">
@@ -21958,13 +21960,13 @@
     </row>
     <row r="480" spans="1:9" ht="30">
       <c r="A480" s="22" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B480" s="24" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C480" s="20" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D480" s="29"/>
       <c r="E480" s="29" t="s">
@@ -21983,13 +21985,13 @@
     </row>
     <row r="481" spans="1:9" ht="30">
       <c r="A481" s="22" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B481" s="24" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C481" s="20" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D481" s="29"/>
       <c r="E481" s="29" t="s">
@@ -22008,13 +22010,13 @@
     </row>
     <row r="482" spans="1:9" ht="30">
       <c r="A482" s="22" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B482" s="24" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C482" s="20" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D482" s="29"/>
       <c r="E482" s="29" t="s">
@@ -22033,13 +22035,13 @@
     </row>
     <row r="483" spans="1:9" ht="30">
       <c r="A483" s="22" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B483" s="24" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C483" s="20" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D483" s="29"/>
       <c r="E483" s="29" t="s">
@@ -22058,13 +22060,13 @@
     </row>
     <row r="484" spans="1:9" ht="30">
       <c r="A484" s="22" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B484" s="24" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C484" s="20" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D484" s="29"/>
       <c r="E484" s="29" t="s">
@@ -22083,13 +22085,13 @@
     </row>
     <row r="485" spans="1:9" ht="45">
       <c r="A485" s="22" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B485" s="24" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C485" s="20" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D485" s="29"/>
       <c r="E485" s="22" t="s">
@@ -22464,7 +22466,7 @@
         <v>1152</v>
       </c>
       <c r="C500" s="20" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D500" s="29"/>
       <c r="E500" s="29" t="s">
@@ -22489,7 +22491,7 @@
         <v>1152</v>
       </c>
       <c r="C501" s="20" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D501" s="29"/>
       <c r="E501" s="29" t="s">
@@ -22514,7 +22516,7 @@
         <v>1152</v>
       </c>
       <c r="C502" s="20" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D502" s="29"/>
       <c r="E502" s="29" t="s">
@@ -22539,7 +22541,7 @@
         <v>1152</v>
       </c>
       <c r="C503" s="20" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D503" s="29"/>
       <c r="E503" s="29" t="s">
@@ -22564,7 +22566,7 @@
         <v>1152</v>
       </c>
       <c r="C504" s="20" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D504" s="29"/>
       <c r="E504" s="29" t="s">
@@ -22591,7 +22593,7 @@
         <v>1152</v>
       </c>
       <c r="C505" s="20" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D505" s="29"/>
       <c r="E505" s="29" t="s">
@@ -22616,7 +22618,7 @@
         <v>1152</v>
       </c>
       <c r="C506" s="20" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D506" s="29"/>
       <c r="E506" s="29" t="s">
@@ -22641,7 +22643,7 @@
         <v>1152</v>
       </c>
       <c r="C507" s="20" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D507" s="29"/>
       <c r="E507" s="29" t="s">
@@ -22666,7 +22668,7 @@
         <v>1152</v>
       </c>
       <c r="C508" s="20" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D508" s="29"/>
       <c r="E508" s="29" t="s">
@@ -22691,7 +22693,7 @@
         <v>1152</v>
       </c>
       <c r="C509" s="20" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D509" s="29"/>
       <c r="E509" s="29" t="s">
@@ -22716,7 +22718,7 @@
         <v>1152</v>
       </c>
       <c r="C510" s="20" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D510" s="29"/>
       <c r="E510" s="29" t="s">
@@ -22741,7 +22743,7 @@
         <v>1152</v>
       </c>
       <c r="C511" s="20" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D511" s="29"/>
       <c r="E511" s="29" t="s">
@@ -22766,7 +22768,7 @@
         <v>1152</v>
       </c>
       <c r="C512" s="20" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D512" s="29"/>
       <c r="E512" s="29" t="s">
@@ -22791,7 +22793,7 @@
         <v>1152</v>
       </c>
       <c r="C513" s="20" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="29" t="s">
@@ -22816,7 +22818,7 @@
         <v>1152</v>
       </c>
       <c r="C514" s="20" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D514" s="29"/>
       <c r="E514" s="29" t="s">
@@ -22835,13 +22837,13 @@
     </row>
     <row r="515" spans="1:9" ht="45">
       <c r="A515" s="22" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B515" s="30" t="s">
         <v>1152</v>
       </c>
       <c r="C515" s="20" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D515" s="29"/>
       <c r="E515" s="22" t="s">
@@ -22860,13 +22862,13 @@
     </row>
     <row r="516" spans="1:9" ht="30">
       <c r="A516" s="22" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B516" s="24" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C516" s="20" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D516" s="29"/>
       <c r="E516" s="22" t="s">
@@ -22885,13 +22887,13 @@
     </row>
     <row r="517" spans="1:9" ht="30">
       <c r="A517" s="22" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B517" s="24" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C517" s="20" t="s">
         <v>2123</v>
-      </c>
-      <c r="C517" s="20" t="s">
-        <v>2124</v>
       </c>
       <c r="D517" s="29"/>
       <c r="E517" s="29" t="s">
@@ -22910,13 +22912,13 @@
     </row>
     <row r="518" spans="1:9" ht="30">
       <c r="A518" s="22" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B518" s="24" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C518" s="20" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D518" s="29"/>
       <c r="E518" s="29" t="s">
@@ -22935,13 +22937,13 @@
     </row>
     <row r="519" spans="1:9" ht="30">
       <c r="A519" s="22" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B519" s="24" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C519" s="20" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D519" s="29"/>
       <c r="E519" s="29" t="s">
@@ -22960,13 +22962,13 @@
     </row>
     <row r="520" spans="1:9" ht="30">
       <c r="A520" s="22" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B520" s="24" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C520" s="20" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D520" s="29"/>
       <c r="E520" s="29" t="s">
@@ -22985,13 +22987,13 @@
     </row>
     <row r="521" spans="1:9" ht="30">
       <c r="A521" s="22" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B521" s="24" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C521" s="20" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D521" s="29"/>
       <c r="E521" s="29" t="s">
@@ -23010,13 +23012,13 @@
     </row>
     <row r="522" spans="1:9" ht="45">
       <c r="A522" s="22" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B522" s="24" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C522" s="20" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D522" s="29"/>
       <c r="E522" s="22" t="s">
@@ -23241,7 +23243,7 @@
         <v>1154</v>
       </c>
       <c r="C531" s="20" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D531" s="29"/>
       <c r="E531" s="29" t="s">
@@ -23266,7 +23268,7 @@
         <v>1154</v>
       </c>
       <c r="C532" s="20" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D532" s="29"/>
       <c r="E532" s="29" t="s">
@@ -23316,7 +23318,7 @@
         <v>1154</v>
       </c>
       <c r="C534" s="20" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D534" s="29"/>
       <c r="E534" s="29" t="s">
@@ -23341,7 +23343,7 @@
         <v>1154</v>
       </c>
       <c r="C535" s="20" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D535" s="29"/>
       <c r="E535" s="29" t="s">
@@ -23391,7 +23393,7 @@
         <v>1154</v>
       </c>
       <c r="C537" s="20" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D537" s="29"/>
       <c r="E537" s="29" t="s">
@@ -23766,7 +23768,7 @@
         <v>1154</v>
       </c>
       <c r="C552" s="20" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D552" s="29"/>
       <c r="E552" s="29" t="s">
@@ -23941,7 +23943,7 @@
         <v>1155</v>
       </c>
       <c r="C559" s="20" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D559" s="29"/>
       <c r="E559" s="29" t="s">
@@ -23966,7 +23968,7 @@
         <v>1155</v>
       </c>
       <c r="C560" s="20" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D560" s="29"/>
       <c r="E560" s="29" t="s">
@@ -23991,7 +23993,7 @@
         <v>1155</v>
       </c>
       <c r="C561" s="20" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="29" t="s">
@@ -24016,7 +24018,7 @@
         <v>1155</v>
       </c>
       <c r="C562" s="20" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D562" s="29"/>
       <c r="E562" s="29" t="s">
@@ -24041,7 +24043,7 @@
         <v>1155</v>
       </c>
       <c r="C563" s="20" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="29" t="s">
@@ -24068,7 +24070,7 @@
         <v>1155</v>
       </c>
       <c r="C564" s="20" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29" t="s">
@@ -24093,7 +24095,7 @@
         <v>1155</v>
       </c>
       <c r="C565" s="20" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D565" s="29"/>
       <c r="E565" s="29" t="s">
@@ -24118,7 +24120,7 @@
         <v>1155</v>
       </c>
       <c r="C566" s="20" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D566" s="29"/>
       <c r="E566" s="29" t="s">
@@ -24143,7 +24145,7 @@
         <v>1155</v>
       </c>
       <c r="C567" s="20" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D567" s="29"/>
       <c r="E567" s="29" t="s">
@@ -24168,7 +24170,7 @@
         <v>1155</v>
       </c>
       <c r="C568" s="20" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D568" s="29"/>
       <c r="E568" s="29" t="s">
@@ -24193,7 +24195,7 @@
         <v>1155</v>
       </c>
       <c r="C569" s="20" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D569" s="29"/>
       <c r="E569" s="29" t="s">
@@ -24218,7 +24220,7 @@
         <v>1155</v>
       </c>
       <c r="C570" s="20" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="29" t="s">
@@ -24243,7 +24245,7 @@
         <v>1155</v>
       </c>
       <c r="C571" s="20" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="29" t="s">
@@ -24268,7 +24270,7 @@
         <v>1155</v>
       </c>
       <c r="C572" s="20" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D572" s="29"/>
       <c r="E572" s="29" t="s">
@@ -24293,7 +24295,7 @@
         <v>1155</v>
       </c>
       <c r="C573" s="20" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D573" s="29"/>
       <c r="E573" s="29" t="s">
@@ -24318,7 +24320,7 @@
         <v>1155</v>
       </c>
       <c r="C574" s="20" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="29" t="s">
@@ -24343,7 +24345,7 @@
         <v>1155</v>
       </c>
       <c r="C575" s="20" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D575" s="29"/>
       <c r="E575" s="29" t="s">
@@ -24368,7 +24370,7 @@
         <v>1155</v>
       </c>
       <c r="C576" s="20" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D576" s="29"/>
       <c r="E576" s="29" t="s">
@@ -24393,7 +24395,7 @@
         <v>1155</v>
       </c>
       <c r="C577" s="20" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D577" s="29"/>
       <c r="E577" s="29" t="s">
@@ -24418,7 +24420,7 @@
         <v>1155</v>
       </c>
       <c r="C578" s="20" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D578" s="29"/>
       <c r="E578" s="29" t="s">
@@ -24443,7 +24445,7 @@
         <v>1155</v>
       </c>
       <c r="C579" s="20" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D579" s="29"/>
       <c r="E579" s="29" t="s">
@@ -24468,7 +24470,7 @@
         <v>1155</v>
       </c>
       <c r="C580" s="20" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D580" s="29"/>
       <c r="E580" s="29" t="s">
@@ -24493,7 +24495,7 @@
         <v>1155</v>
       </c>
       <c r="C581" s="20" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D581" s="29"/>
       <c r="E581" s="29" t="s">
@@ -24518,7 +24520,7 @@
         <v>1155</v>
       </c>
       <c r="C582" s="20" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D582" s="29"/>
       <c r="E582" s="29" t="s">
@@ -24543,7 +24545,7 @@
         <v>1155</v>
       </c>
       <c r="C583" s="20" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D583" s="29"/>
       <c r="E583" s="29" t="s">
@@ -24568,7 +24570,7 @@
         <v>1155</v>
       </c>
       <c r="C584" s="20" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D584" s="29"/>
       <c r="E584" s="29" t="s">
@@ -24593,7 +24595,7 @@
         <v>1155</v>
       </c>
       <c r="C585" s="20" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D585" s="29"/>
       <c r="E585" s="29" t="s">
@@ -24618,7 +24620,7 @@
         <v>1155</v>
       </c>
       <c r="C586" s="20" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D586" s="29"/>
       <c r="E586" s="29" t="s">
@@ -24643,7 +24645,7 @@
         <v>1155</v>
       </c>
       <c r="C587" s="20" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D587" s="29"/>
       <c r="E587" s="29" t="s">
@@ -24668,7 +24670,7 @@
         <v>1155</v>
       </c>
       <c r="C588" s="20" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D588" s="29"/>
       <c r="E588" s="29" t="s">
@@ -24687,13 +24689,13 @@
     </row>
     <row r="589" spans="1:9" ht="30">
       <c r="A589" s="22" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B589" s="24" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C589" s="20" t="s">
         <v>2172</v>
-      </c>
-      <c r="C589" s="20" t="s">
-        <v>2173</v>
       </c>
       <c r="D589" s="29"/>
       <c r="E589" s="22" t="s">
@@ -24712,13 +24714,13 @@
     </row>
     <row r="590" spans="1:9" ht="30">
       <c r="A590" s="22" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B590" s="24" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C590" s="20" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D590" s="29"/>
       <c r="E590" s="29" t="s">
@@ -24737,13 +24739,13 @@
     </row>
     <row r="591" spans="1:9" ht="30">
       <c r="A591" s="22" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B591" s="24" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C591" s="20" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D591" s="29"/>
       <c r="E591" s="29" t="s">
@@ -24762,13 +24764,13 @@
     </row>
     <row r="592" spans="1:9" ht="30">
       <c r="A592" s="22" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B592" s="24" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C592" s="20" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D592" s="29"/>
       <c r="E592" s="29" t="s">
@@ -24787,13 +24789,13 @@
     </row>
     <row r="593" spans="1:9" ht="30">
       <c r="A593" s="22" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B593" s="24" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C593" s="20" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D593" s="29"/>
       <c r="E593" s="29" t="s">
@@ -24812,13 +24814,13 @@
     </row>
     <row r="594" spans="1:9" ht="30">
       <c r="A594" s="22" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B594" s="24" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C594" s="20" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D594" s="29"/>
       <c r="E594" s="29" t="s">
@@ -25022,7 +25024,7 @@
         <v>1157</v>
       </c>
       <c r="C602" s="20" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D602" s="29"/>
       <c r="E602" s="29" t="s">
@@ -25047,7 +25049,7 @@
         <v>1157</v>
       </c>
       <c r="C603" s="20" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D603" s="29"/>
       <c r="E603" s="29" t="s">
@@ -25072,7 +25074,7 @@
         <v>1157</v>
       </c>
       <c r="C604" s="20" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D604" s="29"/>
       <c r="E604" s="29" t="s">
@@ -25097,7 +25099,7 @@
         <v>1157</v>
       </c>
       <c r="C605" s="20" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D605" s="29"/>
       <c r="E605" s="29" t="s">
@@ -25147,7 +25149,7 @@
         <v>1158</v>
       </c>
       <c r="C607" s="20" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D607" s="29"/>
       <c r="E607" s="29" t="s">
@@ -25172,7 +25174,7 @@
         <v>1158</v>
       </c>
       <c r="C608" s="20" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D608" s="29"/>
       <c r="E608" s="29" t="s">
@@ -25197,7 +25199,7 @@
         <v>1158</v>
       </c>
       <c r="C609" s="20" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D609" s="29"/>
       <c r="E609" s="29" t="s">
@@ -25222,7 +25224,7 @@
         <v>1158</v>
       </c>
       <c r="C610" s="20" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D610" s="29"/>
       <c r="E610" s="29" t="s">
@@ -25247,7 +25249,7 @@
         <v>1158</v>
       </c>
       <c r="C611" s="20" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D611" s="29"/>
       <c r="E611" s="29" t="s">
@@ -25274,7 +25276,7 @@
         <v>1158</v>
       </c>
       <c r="C612" s="20" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D612" s="29"/>
       <c r="E612" s="29" t="s">
@@ -25299,7 +25301,7 @@
         <v>1158</v>
       </c>
       <c r="C613" s="20" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D613" s="29"/>
       <c r="E613" s="29" t="s">
@@ -25324,7 +25326,7 @@
         <v>1158</v>
       </c>
       <c r="C614" s="20" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D614" s="29"/>
       <c r="E614" s="29" t="s">
@@ -25349,7 +25351,7 @@
         <v>1158</v>
       </c>
       <c r="C615" s="20" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D615" s="29"/>
       <c r="E615" s="29" t="s">
@@ -25374,7 +25376,7 @@
         <v>1158</v>
       </c>
       <c r="C616" s="20" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D616" s="29"/>
       <c r="E616" s="29" t="s">
@@ -25399,7 +25401,7 @@
         <v>1158</v>
       </c>
       <c r="C617" s="20" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D617" s="29"/>
       <c r="E617" s="29" t="s">
@@ -25424,7 +25426,7 @@
         <v>1158</v>
       </c>
       <c r="C618" s="20" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D618" s="29"/>
       <c r="E618" s="29" t="s">
@@ -25443,13 +25445,13 @@
     </row>
     <row r="619" spans="1:9" ht="30">
       <c r="A619" s="22" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B619" s="24" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C619" s="20" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D619" s="29"/>
       <c r="E619" s="22" t="s">
@@ -25468,13 +25470,13 @@
     </row>
     <row r="620" spans="1:9" ht="30">
       <c r="A620" s="22" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B620" s="24" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C620" s="20" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D620" s="29"/>
       <c r="E620" s="29" t="s">
@@ -25493,13 +25495,13 @@
     </row>
     <row r="621" spans="1:9" ht="30">
       <c r="A621" s="22" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B621" s="24" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C621" s="20" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D621" s="29"/>
       <c r="E621" s="29" t="s">
@@ -25518,13 +25520,13 @@
     </row>
     <row r="622" spans="1:9" ht="30">
       <c r="A622" s="22" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B622" s="24" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C622" s="20" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D622" s="29"/>
       <c r="E622" s="29" t="s">
@@ -25543,13 +25545,13 @@
     </row>
     <row r="623" spans="1:9" ht="30">
       <c r="A623" s="22" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B623" s="24" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C623" s="20" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D623" s="29"/>
       <c r="E623" s="29" t="s">
@@ -25568,13 +25570,13 @@
     </row>
     <row r="624" spans="1:9" ht="30">
       <c r="A624" s="22" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B624" s="24" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C624" s="20" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D624" s="29"/>
       <c r="E624" s="29" t="s">
@@ -25599,7 +25601,7 @@
         <v>1159</v>
       </c>
       <c r="C625" s="20" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D625" s="29"/>
       <c r="E625" s="29" t="s">
@@ -25615,7 +25617,7 @@
         <v>17</v>
       </c>
       <c r="I625" s="20" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="626" spans="1:9" ht="30">
@@ -25780,7 +25782,7 @@
         <v>1160</v>
       </c>
       <c r="C632" s="20" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D632" s="29"/>
       <c r="E632" s="29" t="s">
@@ -25805,7 +25807,7 @@
         <v>1160</v>
       </c>
       <c r="C633" s="20" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D633" s="29"/>
       <c r="E633" s="29" t="s">
@@ -25855,7 +25857,7 @@
         <v>1160</v>
       </c>
       <c r="C635" s="20" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D635" s="29"/>
       <c r="E635" s="29" t="s">
@@ -25880,7 +25882,7 @@
         <v>1160</v>
       </c>
       <c r="C636" s="20" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D636" s="29"/>
       <c r="E636" s="29" t="s">
@@ -25930,7 +25932,7 @@
         <v>1160</v>
       </c>
       <c r="C638" s="20" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D638" s="29"/>
       <c r="E638" s="29" t="s">
@@ -25955,7 +25957,7 @@
         <v>1160</v>
       </c>
       <c r="C639" s="20" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D639" s="29"/>
       <c r="E639" s="29" t="s">
@@ -26005,7 +26007,7 @@
         <v>1161</v>
       </c>
       <c r="C641" s="20" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D641" s="29"/>
       <c r="E641" s="29" t="s">
@@ -26030,7 +26032,7 @@
         <v>1161</v>
       </c>
       <c r="C642" s="20" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D642" s="29"/>
       <c r="E642" s="29" t="s">
@@ -26055,7 +26057,7 @@
         <v>1161</v>
       </c>
       <c r="C643" s="20" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D643" s="29"/>
       <c r="E643" s="29" t="s">
@@ -26080,7 +26082,7 @@
         <v>1161</v>
       </c>
       <c r="C644" s="20" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D644" s="29"/>
       <c r="E644" s="29" t="s">
@@ -26105,7 +26107,7 @@
         <v>1161</v>
       </c>
       <c r="C645" s="20" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D645" s="29"/>
       <c r="E645" s="29" t="s">
@@ -26132,7 +26134,7 @@
         <v>1161</v>
       </c>
       <c r="C646" s="20" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D646" s="29"/>
       <c r="E646" s="29" t="s">
@@ -26157,7 +26159,7 @@
         <v>1161</v>
       </c>
       <c r="C647" s="20" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D647" s="29"/>
       <c r="E647" s="29" t="s">
@@ -26182,7 +26184,7 @@
         <v>1161</v>
       </c>
       <c r="C648" s="20" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D648" s="29"/>
       <c r="E648" s="29" t="s">
@@ -26207,7 +26209,7 @@
         <v>1161</v>
       </c>
       <c r="C649" s="20" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D649" s="29"/>
       <c r="E649" s="29" t="s">
@@ -26232,7 +26234,7 @@
         <v>1161</v>
       </c>
       <c r="C650" s="20" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D650" s="29"/>
       <c r="E650" s="29" t="s">
@@ -26257,7 +26259,7 @@
         <v>1161</v>
       </c>
       <c r="C651" s="20" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D651" s="29"/>
       <c r="E651" s="29" t="s">
@@ -26282,7 +26284,7 @@
         <v>1161</v>
       </c>
       <c r="C652" s="20" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D652" s="29"/>
       <c r="E652" s="29" t="s">
@@ -26307,7 +26309,7 @@
         <v>1161</v>
       </c>
       <c r="C653" s="20" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D653" s="29"/>
       <c r="E653" s="29" t="s">
@@ -26326,13 +26328,13 @@
     </row>
     <row r="654" spans="1:9" ht="30">
       <c r="A654" s="22" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B654" s="24" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C654" s="20" t="s">
         <v>2217</v>
-      </c>
-      <c r="C654" s="20" t="s">
-        <v>2218</v>
       </c>
       <c r="D654" s="29"/>
       <c r="E654" s="22" t="s">
@@ -26351,13 +26353,13 @@
     </row>
     <row r="655" spans="1:9" ht="30">
       <c r="A655" s="22" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B655" s="24" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C655" s="20" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D655" s="29"/>
       <c r="E655" s="29" t="s">
@@ -26376,13 +26378,13 @@
     </row>
     <row r="656" spans="1:9" ht="30">
       <c r="A656" s="22" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B656" s="24" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C656" s="20" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D656" s="29"/>
       <c r="E656" s="29" t="s">
@@ -26401,13 +26403,13 @@
     </row>
     <row r="657" spans="1:9" ht="30">
       <c r="A657" s="22" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B657" s="24" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C657" s="20" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D657" s="29"/>
       <c r="E657" s="29" t="s">
@@ -26426,13 +26428,13 @@
     </row>
     <row r="658" spans="1:9" ht="30">
       <c r="A658" s="22" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B658" s="24" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C658" s="20" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D658" s="29"/>
       <c r="E658" s="29" t="s">
@@ -26451,13 +26453,13 @@
     </row>
     <row r="659" spans="1:9" ht="30">
       <c r="A659" s="22" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B659" s="24" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C659" s="20" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D659" s="29"/>
       <c r="E659" s="29" t="s">
@@ -26911,7 +26913,7 @@
         <v>1164</v>
       </c>
       <c r="C677" s="20" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D677" s="29"/>
       <c r="E677" s="29" t="s">
@@ -26936,7 +26938,7 @@
         <v>1164</v>
       </c>
       <c r="C678" s="20" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D678" s="29"/>
       <c r="E678" s="29" t="s">
@@ -26961,7 +26963,7 @@
         <v>1164</v>
       </c>
       <c r="C679" s="20" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D679" s="29"/>
       <c r="E679" s="29" t="s">
@@ -26986,7 +26988,7 @@
         <v>1164</v>
       </c>
       <c r="C680" s="20" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D680" s="29"/>
       <c r="E680" s="29" t="s">
@@ -27011,7 +27013,7 @@
         <v>1164</v>
       </c>
       <c r="C681" s="20" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D681" s="29"/>
       <c r="E681" s="29" t="s">
@@ -27038,7 +27040,7 @@
         <v>1164</v>
       </c>
       <c r="C682" s="20" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D682" s="29"/>
       <c r="E682" s="29" t="s">
@@ -27063,7 +27065,7 @@
         <v>1164</v>
       </c>
       <c r="C683" s="20" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D683" s="29"/>
       <c r="E683" s="29" t="s">
@@ -27088,7 +27090,7 @@
         <v>1164</v>
       </c>
       <c r="C684" s="20" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D684" s="29"/>
       <c r="E684" s="29" t="s">
@@ -27113,7 +27115,7 @@
         <v>1164</v>
       </c>
       <c r="C685" s="20" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D685" s="29"/>
       <c r="E685" s="29" t="s">
@@ -27138,7 +27140,7 @@
         <v>1164</v>
       </c>
       <c r="C686" s="20" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D686" s="29"/>
       <c r="E686" s="29" t="s">
@@ -27163,7 +27165,7 @@
         <v>1164</v>
       </c>
       <c r="C687" s="20" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D687" s="29"/>
       <c r="E687" s="29" t="s">
@@ -27188,7 +27190,7 @@
         <v>1164</v>
       </c>
       <c r="C688" s="20" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D688" s="29"/>
       <c r="E688" s="29" t="s">
@@ -27213,7 +27215,7 @@
         <v>1164</v>
       </c>
       <c r="C689" s="20" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D689" s="29"/>
       <c r="E689" s="29" t="s">
@@ -27238,7 +27240,7 @@
         <v>1164</v>
       </c>
       <c r="C690" s="20" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D690" s="29"/>
       <c r="E690" s="29" t="s">
@@ -27263,7 +27265,7 @@
         <v>1164</v>
       </c>
       <c r="C691" s="20" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D691" s="29"/>
       <c r="E691" s="29" t="s">
@@ -27288,7 +27290,7 @@
         <v>1164</v>
       </c>
       <c r="C692" s="20" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D692" s="29"/>
       <c r="E692" s="29" t="s">
@@ -27313,7 +27315,7 @@
         <v>1164</v>
       </c>
       <c r="C693" s="20" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D693" s="29"/>
       <c r="E693" s="29" t="s">
@@ -27338,7 +27340,7 @@
         <v>1164</v>
       </c>
       <c r="C694" s="20" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D694" s="29"/>
       <c r="E694" s="29" t="s">
@@ -27363,7 +27365,7 @@
         <v>1164</v>
       </c>
       <c r="C695" s="20" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D695" s="29"/>
       <c r="E695" s="29" t="s">
@@ -27388,7 +27390,7 @@
         <v>1164</v>
       </c>
       <c r="C696" s="20" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D696" s="29"/>
       <c r="E696" s="29" t="s">
@@ -27407,13 +27409,13 @@
     </row>
     <row r="697" spans="1:9" ht="30">
       <c r="A697" s="22" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B697" s="24" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C697" s="20" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D697" s="29"/>
       <c r="E697" s="22" t="s">
@@ -27432,13 +27434,13 @@
     </row>
     <row r="698" spans="1:9" ht="30">
       <c r="A698" s="22" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B698" s="24" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C698" s="20" t="s">
         <v>2244</v>
-      </c>
-      <c r="C698" s="20" t="s">
-        <v>2245</v>
       </c>
       <c r="D698" s="29"/>
       <c r="E698" s="29" t="s">
@@ -27457,13 +27459,13 @@
     </row>
     <row r="699" spans="1:9" ht="30">
       <c r="A699" s="22" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B699" s="24" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C699" s="20" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D699" s="29"/>
       <c r="E699" s="29" t="s">
@@ -27482,13 +27484,13 @@
     </row>
     <row r="700" spans="1:9" ht="30">
       <c r="A700" s="22" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B700" s="24" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C700" s="20" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D700" s="29"/>
       <c r="E700" s="29" t="s">
@@ -27507,13 +27509,13 @@
     </row>
     <row r="701" spans="1:9" ht="30">
       <c r="A701" s="22" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B701" s="24" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C701" s="20" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D701" s="29"/>
       <c r="E701" s="29" t="s">
@@ -27532,13 +27534,13 @@
     </row>
     <row r="702" spans="1:9" ht="30">
       <c r="A702" s="22" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B702" s="24" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C702" s="20" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D702" s="29"/>
       <c r="E702" s="29" t="s">
@@ -27742,7 +27744,7 @@
         <v>1166</v>
       </c>
       <c r="C710" s="20" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D710" s="29"/>
       <c r="E710" s="29" t="s">
@@ -27792,7 +27794,7 @@
         <v>1166</v>
       </c>
       <c r="C712" s="20" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D712" s="29"/>
       <c r="E712" s="29" t="s">
@@ -27817,7 +27819,7 @@
         <v>1166</v>
       </c>
       <c r="C713" s="20" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D713" s="29"/>
       <c r="E713" s="29" t="s">
@@ -27867,7 +27869,7 @@
         <v>1166</v>
       </c>
       <c r="C715" s="20" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D715" s="29"/>
       <c r="E715" s="29" t="s">
@@ -27892,7 +27894,7 @@
         <v>1166</v>
       </c>
       <c r="C716" s="20" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D716" s="29"/>
       <c r="E716" s="29" t="s">
@@ -27917,7 +27919,7 @@
         <v>1166</v>
       </c>
       <c r="C717" s="20" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D717" s="29"/>
       <c r="E717" s="29" t="s">
@@ -27942,7 +27944,7 @@
         <v>1166</v>
       </c>
       <c r="C718" s="20" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D718" s="29"/>
       <c r="E718" s="29" t="s">
@@ -27992,7 +27994,7 @@
         <v>1167</v>
       </c>
       <c r="C720" s="20" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D720" s="29"/>
       <c r="E720" s="29" t="s">
@@ -28017,7 +28019,7 @@
         <v>1167</v>
       </c>
       <c r="C721" s="20" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D721" s="29"/>
       <c r="E721" s="29" t="s">
@@ -28042,7 +28044,7 @@
         <v>1167</v>
       </c>
       <c r="C722" s="20" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D722" s="29"/>
       <c r="E722" s="29" t="s">
@@ -28067,7 +28069,7 @@
         <v>1167</v>
       </c>
       <c r="C723" s="20" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D723" s="29"/>
       <c r="E723" s="29" t="s">
@@ -28092,7 +28094,7 @@
         <v>1167</v>
       </c>
       <c r="C724" s="20" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D724" s="29"/>
       <c r="E724" s="29" t="s">
@@ -28119,7 +28121,7 @@
         <v>1167</v>
       </c>
       <c r="C725" s="20" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D725" s="29"/>
       <c r="E725" s="29" t="s">
@@ -28144,7 +28146,7 @@
         <v>1167</v>
       </c>
       <c r="C726" s="20" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D726" s="29"/>
       <c r="E726" s="29" t="s">
@@ -28169,7 +28171,7 @@
         <v>1167</v>
       </c>
       <c r="C727" s="20" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D727" s="29"/>
       <c r="E727" s="29" t="s">
@@ -28194,7 +28196,7 @@
         <v>1167</v>
       </c>
       <c r="C728" s="20" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D728" s="29"/>
       <c r="E728" s="29" t="s">
@@ -28219,7 +28221,7 @@
         <v>1167</v>
       </c>
       <c r="C729" s="20" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -28244,7 +28246,7 @@
         <v>1167</v>
       </c>
       <c r="C730" s="20" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D730" s="29"/>
       <c r="E730" s="29" t="s">
@@ -28269,7 +28271,7 @@
         <v>1167</v>
       </c>
       <c r="C731" s="20" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D731" s="29"/>
       <c r="E731" s="29" t="s">
@@ -28294,7 +28296,7 @@
         <v>1167</v>
       </c>
       <c r="C732" s="20" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D732" s="29"/>
       <c r="E732" s="29" t="s">
@@ -28313,13 +28315,13 @@
     </row>
     <row r="733" spans="1:9" ht="30">
       <c r="A733" s="22" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B733" s="24" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C733" s="20" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D733" s="29"/>
       <c r="E733" s="22" t="s">
@@ -28338,13 +28340,13 @@
     </row>
     <row r="734" spans="1:9" ht="30">
       <c r="A734" s="22" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B734" s="24" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C734" s="20" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D734" s="29"/>
       <c r="E734" s="29" t="s">
@@ -28363,13 +28365,13 @@
     </row>
     <row r="735" spans="1:9" ht="30">
       <c r="A735" s="22" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B735" s="24" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C735" s="20" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D735" s="29"/>
       <c r="E735" s="29" t="s">
@@ -28388,13 +28390,13 @@
     </row>
     <row r="736" spans="1:9" ht="30">
       <c r="A736" s="22" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B736" s="24" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C736" s="20" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D736" s="29"/>
       <c r="E736" s="29" t="s">
@@ -28413,13 +28415,13 @@
     </row>
     <row r="737" spans="1:9" ht="30">
       <c r="A737" s="22" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B737" s="24" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C737" s="20" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D737" s="29"/>
       <c r="E737" s="29" t="s">
@@ -28438,13 +28440,13 @@
     </row>
     <row r="738" spans="1:9" ht="30">
       <c r="A738" s="22" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B738" s="24" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C738" s="20" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D738" s="29"/>
       <c r="E738" s="29" t="s">
@@ -28648,7 +28650,7 @@
         <v>1169</v>
       </c>
       <c r="C746" s="20" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D746" s="29"/>
       <c r="E746" s="29" t="s">
@@ -28806,7 +28808,7 @@
         <v>1169</v>
       </c>
       <c r="C752" s="20" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D752" s="29"/>
       <c r="E752" s="29" t="s">
@@ -28831,7 +28833,7 @@
         <v>1169</v>
       </c>
       <c r="C753" s="20" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D753" s="29"/>
       <c r="E753" s="29" t="s">
@@ -28856,7 +28858,7 @@
         <v>1169</v>
       </c>
       <c r="C754" s="20" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D754" s="29"/>
       <c r="E754" s="29" t="s">
@@ -28906,7 +28908,7 @@
         <v>1169</v>
       </c>
       <c r="C756" s="20" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D756" s="29"/>
       <c r="E756" s="29" t="s">
@@ -29006,7 +29008,7 @@
         <v>1169</v>
       </c>
       <c r="C760" s="20" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D760" s="29"/>
       <c r="E760" s="29" t="s">
@@ -29031,7 +29033,7 @@
         <v>1169</v>
       </c>
       <c r="C761" s="20" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D761" s="29"/>
       <c r="E761" s="29" t="s">
@@ -29081,7 +29083,7 @@
         <v>1170</v>
       </c>
       <c r="C763" s="20" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D763" s="29"/>
       <c r="E763" s="29" t="s">
@@ -29106,7 +29108,7 @@
         <v>1170</v>
       </c>
       <c r="C764" s="20" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D764" s="29"/>
       <c r="E764" s="29" t="s">
@@ -29131,7 +29133,7 @@
         <v>1170</v>
       </c>
       <c r="C765" s="20" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D765" s="29"/>
       <c r="E765" s="29" t="s">
@@ -29156,7 +29158,7 @@
         <v>1170</v>
       </c>
       <c r="C766" s="20" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D766" s="29"/>
       <c r="E766" s="29" t="s">
@@ -29181,7 +29183,7 @@
         <v>1170</v>
       </c>
       <c r="C767" s="20" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D767" s="29"/>
       <c r="E767" s="29" t="s">
@@ -29208,7 +29210,7 @@
         <v>1170</v>
       </c>
       <c r="C768" s="20" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D768" s="29"/>
       <c r="E768" s="29" t="s">
@@ -29233,7 +29235,7 @@
         <v>1170</v>
       </c>
       <c r="C769" s="20" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D769" s="29"/>
       <c r="E769" s="29" t="s">
@@ -29258,7 +29260,7 @@
         <v>1170</v>
       </c>
       <c r="C770" s="20" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D770" s="29"/>
       <c r="E770" s="29" t="s">
@@ -29277,13 +29279,13 @@
     </row>
     <row r="771" spans="1:9" ht="30">
       <c r="A771" s="22" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="B771" s="24" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C771" s="20" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D771" s="29"/>
       <c r="E771" s="22" t="s">
@@ -29302,13 +29304,13 @@
     </row>
     <row r="772" spans="1:9" ht="30">
       <c r="A772" s="22" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="B772" s="24" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C772" s="20" t="s">
         <v>2292</v>
-      </c>
-      <c r="C772" s="20" t="s">
-        <v>2293</v>
       </c>
       <c r="D772" s="29"/>
       <c r="E772" s="29" t="s">
@@ -29327,13 +29329,13 @@
     </row>
     <row r="773" spans="1:9" ht="30">
       <c r="A773" s="22" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B773" s="24" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C773" s="20" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D773" s="29"/>
       <c r="E773" s="29" t="s">
@@ -29352,13 +29354,13 @@
     </row>
     <row r="774" spans="1:9" ht="30">
       <c r="A774" s="22" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B774" s="24" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C774" s="20" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -29377,13 +29379,13 @@
     </row>
     <row r="775" spans="1:9" ht="30">
       <c r="A775" s="22" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="B775" s="24" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C775" s="20" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D775" s="29"/>
       <c r="E775" s="29" t="s">
@@ -29402,13 +29404,13 @@
     </row>
     <row r="776" spans="1:9" ht="30">
       <c r="A776" s="22" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B776" s="24" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C776" s="20" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D776" s="29"/>
       <c r="E776" s="29" t="s">
@@ -29608,7 +29610,7 @@
         <v>1172</v>
       </c>
       <c r="C784" s="20" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D784" s="29"/>
       <c r="E784" s="29" t="s">
@@ -29633,7 +29635,7 @@
         <v>1172</v>
       </c>
       <c r="C785" s="20" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D785" s="29"/>
       <c r="E785" s="29" t="s">
@@ -29683,7 +29685,7 @@
         <v>1172</v>
       </c>
       <c r="C787" s="20" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D787" s="29"/>
       <c r="E787" s="29" t="s">
@@ -29708,7 +29710,7 @@
         <v>1172</v>
       </c>
       <c r="C788" s="20" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D788" s="29"/>
       <c r="E788" s="29" t="s">
@@ -29733,7 +29735,7 @@
         <v>1172</v>
       </c>
       <c r="C789" s="20" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D789" s="29"/>
       <c r="E789" s="29" t="s">
@@ -29758,7 +29760,7 @@
         <v>1172</v>
       </c>
       <c r="C790" s="20" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D790" s="29"/>
       <c r="E790" s="29" t="s">
@@ -29783,7 +29785,7 @@
         <v>1172</v>
       </c>
       <c r="C791" s="20" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D791" s="29"/>
       <c r="E791" s="29" t="s">
@@ -29833,7 +29835,7 @@
         <v>1172</v>
       </c>
       <c r="C793" s="20" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D793" s="29"/>
       <c r="E793" s="29" t="s">
@@ -29858,7 +29860,7 @@
         <v>1172</v>
       </c>
       <c r="C794" s="20" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D794" s="29"/>
       <c r="E794" s="29" t="s">
@@ -29908,7 +29910,7 @@
         <v>1173</v>
       </c>
       <c r="C796" s="20" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D796" s="29"/>
       <c r="E796" s="29" t="s">
@@ -29933,7 +29935,7 @@
         <v>1173</v>
       </c>
       <c r="C797" s="20" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D797" s="29"/>
       <c r="E797" s="29" t="s">
@@ -29958,7 +29960,7 @@
         <v>1173</v>
       </c>
       <c r="C798" s="20" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D798" s="29"/>
       <c r="E798" s="29" t="s">
@@ -29983,7 +29985,7 @@
         <v>1173</v>
       </c>
       <c r="C799" s="20" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D799" s="29"/>
       <c r="E799" s="29" t="s">
@@ -30008,7 +30010,7 @@
         <v>1173</v>
       </c>
       <c r="C800" s="20" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D800" s="29"/>
       <c r="E800" s="29" t="s">
@@ -30035,7 +30037,7 @@
         <v>1173</v>
       </c>
       <c r="C801" s="20" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D801" s="29"/>
       <c r="E801" s="29" t="s">
@@ -30060,7 +30062,7 @@
         <v>1173</v>
       </c>
       <c r="C802" s="20" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D802" s="29"/>
       <c r="E802" s="29" t="s">
@@ -30085,7 +30087,7 @@
         <v>1173</v>
       </c>
       <c r="C803" s="20" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D803" s="29"/>
       <c r="E803" s="29" t="s">
@@ -30104,13 +30106,13 @@
     </row>
     <row r="804" spans="1:9" ht="30">
       <c r="A804" s="22" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="B804" s="24" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C804" s="20" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D804" s="29"/>
       <c r="E804" s="22" t="s">
@@ -30129,13 +30131,13 @@
     </row>
     <row r="805" spans="1:9" ht="30">
       <c r="A805" s="22" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B805" s="24" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C805" s="20" t="s">
         <v>2316</v>
-      </c>
-      <c r="C805" s="20" t="s">
-        <v>2317</v>
       </c>
       <c r="D805" s="29"/>
       <c r="E805" s="29" t="s">
@@ -30154,13 +30156,13 @@
     </row>
     <row r="806" spans="1:9" ht="30">
       <c r="A806" s="22" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B806" s="24" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C806" s="20" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D806" s="29"/>
       <c r="E806" s="29" t="s">
@@ -30179,13 +30181,13 @@
     </row>
     <row r="807" spans="1:9" ht="30">
       <c r="A807" s="22" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B807" s="24" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C807" s="20" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D807" s="29"/>
       <c r="E807" s="29" t="s">
@@ -30204,13 +30206,13 @@
     </row>
     <row r="808" spans="1:9" ht="30">
       <c r="A808" s="22" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B808" s="24" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C808" s="20" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D808" s="29"/>
       <c r="E808" s="29" t="s">
@@ -30229,13 +30231,13 @@
     </row>
     <row r="809" spans="1:9" ht="30">
       <c r="A809" s="22" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B809" s="24" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C809" s="20" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D809" s="29"/>
       <c r="E809" s="29" t="s">
@@ -30489,7 +30491,7 @@
         <v>1175</v>
       </c>
       <c r="C819" s="20" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D819" s="29"/>
       <c r="E819" s="29" t="s">
@@ -30514,7 +30516,7 @@
         <v>1175</v>
       </c>
       <c r="C820" s="20" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D820" s="29"/>
       <c r="E820" s="29" t="s">
@@ -30564,7 +30566,7 @@
         <v>1175</v>
       </c>
       <c r="C822" s="20" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D822" s="29"/>
       <c r="E822" s="29" t="s">
@@ -30614,7 +30616,7 @@
         <v>1175</v>
       </c>
       <c r="C824" s="20" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D824" s="29"/>
       <c r="E824" s="29" t="s">
@@ -30639,7 +30641,7 @@
         <v>1175</v>
       </c>
       <c r="C825" s="20" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D825" s="29"/>
       <c r="E825" s="29" t="s">
@@ -30664,7 +30666,7 @@
         <v>1175</v>
       </c>
       <c r="C826" s="20" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D826" s="29"/>
       <c r="E826" s="29" t="s">
@@ -30689,7 +30691,7 @@
         <v>1175</v>
       </c>
       <c r="C827" s="20" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D827" s="29"/>
       <c r="E827" s="29" t="s">
@@ -30739,7 +30741,7 @@
         <v>1175</v>
       </c>
       <c r="C829" s="20" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D829" s="29"/>
       <c r="E829" s="29" t="s">
@@ -30764,7 +30766,7 @@
         <v>1175</v>
       </c>
       <c r="C830" s="20" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D830" s="29"/>
       <c r="E830" s="29" t="s">
@@ -30814,7 +30816,7 @@
         <v>1176</v>
       </c>
       <c r="C832" s="20" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D832" s="29"/>
       <c r="E832" s="29" t="s">
@@ -30839,7 +30841,7 @@
         <v>1176</v>
       </c>
       <c r="C833" s="20" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D833" s="29"/>
       <c r="E833" s="29" t="s">
@@ -30864,7 +30866,7 @@
         <v>1176</v>
       </c>
       <c r="C834" s="20" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D834" s="29"/>
       <c r="E834" s="29" t="s">
@@ -30889,7 +30891,7 @@
         <v>1176</v>
       </c>
       <c r="C835" s="20" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D835" s="29"/>
       <c r="E835" s="29" t="s">
@@ -30914,7 +30916,7 @@
         <v>1176</v>
       </c>
       <c r="C836" s="20" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D836" s="29"/>
       <c r="E836" s="29" t="s">
@@ -30941,7 +30943,7 @@
         <v>1176</v>
       </c>
       <c r="C837" s="20" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D837" s="29"/>
       <c r="E837" s="29" t="s">
@@ -30966,7 +30968,7 @@
         <v>1176</v>
       </c>
       <c r="C838" s="20" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D838" s="29"/>
       <c r="E838" s="29" t="s">
@@ -30991,7 +30993,7 @@
         <v>1176</v>
       </c>
       <c r="C839" s="20" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D839" s="29"/>
       <c r="E839" s="29" t="s">
@@ -31016,7 +31018,7 @@
         <v>1176</v>
       </c>
       <c r="C840" s="20" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D840" s="29"/>
       <c r="E840" s="29" t="s">
@@ -31041,7 +31043,7 @@
         <v>1176</v>
       </c>
       <c r="C841" s="20" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D841" s="29"/>
       <c r="E841" s="29" t="s">
@@ -31066,7 +31068,7 @@
         <v>1176</v>
       </c>
       <c r="C842" s="20" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D842" s="29"/>
       <c r="E842" s="29" t="s">
@@ -31091,7 +31093,7 @@
         <v>1176</v>
       </c>
       <c r="C843" s="20" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D843" s="29"/>
       <c r="E843" s="29" t="s">
@@ -31116,7 +31118,7 @@
         <v>1176</v>
       </c>
       <c r="C844" s="20" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D844" s="29"/>
       <c r="E844" s="29" t="s">
@@ -31141,7 +31143,7 @@
         <v>1176</v>
       </c>
       <c r="C845" s="20" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D845" s="29"/>
       <c r="E845" s="29" t="s">
@@ -31166,7 +31168,7 @@
         <v>1176</v>
       </c>
       <c r="C846" s="20" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D846" s="29"/>
       <c r="E846" s="29" t="s">
@@ -31191,7 +31193,7 @@
         <v>1176</v>
       </c>
       <c r="C847" s="20" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D847" s="29"/>
       <c r="E847" s="29" t="s">
@@ -31216,7 +31218,7 @@
         <v>1176</v>
       </c>
       <c r="C848" s="20" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D848" s="29"/>
       <c r="E848" s="29" t="s">
@@ -31241,7 +31243,7 @@
         <v>1176</v>
       </c>
       <c r="C849" s="20" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D849" s="29"/>
       <c r="E849" s="29" t="s">
@@ -31266,7 +31268,7 @@
         <v>1176</v>
       </c>
       <c r="C850" s="20" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D850" s="29"/>
       <c r="E850" s="29" t="s">
@@ -31291,7 +31293,7 @@
         <v>1176</v>
       </c>
       <c r="C851" s="20" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D851" s="29"/>
       <c r="E851" s="29" t="s">
@@ -31316,7 +31318,7 @@
         <v>1176</v>
       </c>
       <c r="C852" s="20" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D852" s="29"/>
       <c r="E852" s="29" t="s">
@@ -31341,7 +31343,7 @@
         <v>1176</v>
       </c>
       <c r="C853" s="20" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D853" s="29"/>
       <c r="E853" s="29" t="s">
@@ -31360,13 +31362,13 @@
     </row>
     <row r="854" spans="1:9" ht="30">
       <c r="A854" s="22" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B854" s="24" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C854" s="20" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D854" s="29"/>
       <c r="E854" s="22" t="s">
@@ -31385,13 +31387,13 @@
     </row>
     <row r="855" spans="1:9" ht="30">
       <c r="A855" s="22" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B855" s="24" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C855" s="20" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D855" s="29"/>
       <c r="E855" s="29" t="s">
@@ -31410,13 +31412,13 @@
     </row>
     <row r="856" spans="1:9" ht="30">
       <c r="A856" s="22" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B856" s="24" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C856" s="20" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D856" s="29"/>
       <c r="E856" s="29" t="s">
@@ -31435,13 +31437,13 @@
     </row>
     <row r="857" spans="1:9" ht="30">
       <c r="A857" s="22" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B857" s="24" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C857" s="20" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D857" s="29"/>
       <c r="E857" s="29" t="s">
@@ -31460,13 +31462,13 @@
     </row>
     <row r="858" spans="1:9" ht="30">
       <c r="A858" s="22" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B858" s="24" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C858" s="20" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D858" s="29"/>
       <c r="E858" s="29" t="s">
@@ -31485,13 +31487,13 @@
     </row>
     <row r="859" spans="1:9" ht="30">
       <c r="A859" s="22" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B859" s="24" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C859" s="20" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D859" s="29"/>
       <c r="E859" s="29" t="s">
@@ -31716,7 +31718,7 @@
         <v>1178</v>
       </c>
       <c r="C868" s="20" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D868" s="29"/>
       <c r="E868" s="29" t="s">
@@ -31795,7 +31797,7 @@
         <v>1178</v>
       </c>
       <c r="C871" s="20" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D871" s="29"/>
       <c r="E871" s="29" t="s">
@@ -31820,7 +31822,7 @@
         <v>1178</v>
       </c>
       <c r="C872" s="20" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D872" s="29"/>
       <c r="E872" s="29" t="s">
@@ -31870,7 +31872,7 @@
         <v>1179</v>
       </c>
       <c r="C874" s="20" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D874" s="29"/>
       <c r="E874" s="29" t="s">
@@ -31895,7 +31897,7 @@
         <v>1179</v>
       </c>
       <c r="C875" s="20" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D875" s="29"/>
       <c r="E875" s="29" t="s">
@@ -31920,7 +31922,7 @@
         <v>1179</v>
       </c>
       <c r="C876" s="20" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D876" s="29"/>
       <c r="E876" s="29" t="s">
@@ -31945,7 +31947,7 @@
         <v>1179</v>
       </c>
       <c r="C877" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D877" s="29"/>
       <c r="E877" s="29" t="s">
@@ -31970,7 +31972,7 @@
         <v>1179</v>
       </c>
       <c r="C878" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D878" s="29"/>
       <c r="E878" s="29" t="s">
@@ -31997,7 +31999,7 @@
         <v>1179</v>
       </c>
       <c r="C879" s="20" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D879" s="29"/>
       <c r="E879" s="29" t="s">
@@ -32022,7 +32024,7 @@
         <v>1179</v>
       </c>
       <c r="C880" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D880" s="29"/>
       <c r="E880" s="29" t="s">
@@ -32047,7 +32049,7 @@
         <v>1179</v>
       </c>
       <c r="C881" s="20" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D881" s="29"/>
       <c r="E881" s="29" t="s">
@@ -32072,7 +32074,7 @@
         <v>1179</v>
       </c>
       <c r="C882" s="20" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D882" s="29"/>
       <c r="E882" s="29" t="s">
@@ -32097,7 +32099,7 @@
         <v>1179</v>
       </c>
       <c r="C883" s="20" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D883" s="29"/>
       <c r="E883" s="29" t="s">
@@ -32122,7 +32124,7 @@
         <v>1179</v>
       </c>
       <c r="C884" s="20" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D884" s="29"/>
       <c r="E884" s="29" t="s">
@@ -32147,7 +32149,7 @@
         <v>1179</v>
       </c>
       <c r="C885" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D885" s="29"/>
       <c r="E885" s="29" t="s">
@@ -32166,13 +32168,13 @@
     </row>
     <row r="886" spans="1:9" ht="30">
       <c r="A886" s="22" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B886" s="24" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C886" s="20" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D886" s="29"/>
       <c r="E886" s="22" t="s">
@@ -32191,13 +32193,13 @@
     </row>
     <row r="887" spans="1:9" ht="30">
       <c r="A887" s="22" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B887" s="24" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C887" s="20" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D887" s="29"/>
       <c r="E887" s="29" t="s">
@@ -32216,13 +32218,13 @@
     </row>
     <row r="888" spans="1:9" ht="30">
       <c r="A888" s="22" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B888" s="24" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C888" s="20" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D888" s="29"/>
       <c r="E888" s="29" t="s">
@@ -32241,13 +32243,13 @@
     </row>
     <row r="889" spans="1:9" ht="30">
       <c r="A889" s="22" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="B889" s="24" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C889" s="20" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D889" s="29"/>
       <c r="E889" s="29" t="s">
@@ -32266,13 +32268,13 @@
     </row>
     <row r="890" spans="1:9" ht="30">
       <c r="A890" s="22" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B890" s="24" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C890" s="20" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D890" s="29"/>
       <c r="E890" s="29" t="s">
@@ -32291,13 +32293,13 @@
     </row>
     <row r="891" spans="1:9" ht="30">
       <c r="A891" s="22" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B891" s="24" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C891" s="20" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D891" s="29"/>
       <c r="E891" s="29" t="s">
@@ -32497,7 +32499,7 @@
         <v>1181</v>
       </c>
       <c r="C899" s="20" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D899" s="29"/>
       <c r="E899" s="29" t="s">
@@ -32522,7 +32524,7 @@
         <v>1181</v>
       </c>
       <c r="C900" s="20" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D900" s="29"/>
       <c r="E900" s="29" t="s">
@@ -32572,7 +32574,7 @@
         <v>1181</v>
       </c>
       <c r="C902" s="20" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D902" s="29"/>
       <c r="E902" s="29" t="s">
@@ -32597,7 +32599,7 @@
         <v>1181</v>
       </c>
       <c r="C903" s="20" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D903" s="29"/>
       <c r="E903" s="29" t="s">
@@ -32647,7 +32649,7 @@
         <v>1181</v>
       </c>
       <c r="C905" s="20" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D905" s="29"/>
       <c r="E905" s="29" t="s">
@@ -32666,13 +32668,13 @@
     </row>
     <row r="906" spans="1:9" ht="45">
       <c r="A906" s="22" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B906" s="30" t="s">
         <v>1181</v>
       </c>
       <c r="C906" s="20" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D906" s="29"/>
       <c r="E906" s="22" t="s">
@@ -32691,13 +32693,13 @@
     </row>
     <row r="907" spans="1:9" ht="30">
       <c r="A907" s="22" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B907" s="30" t="s">
         <v>1181</v>
       </c>
       <c r="C907" s="20" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D907" s="29"/>
       <c r="E907" s="22" t="s">
@@ -32716,13 +32718,13 @@
     </row>
     <row r="908" spans="1:9" ht="30">
       <c r="A908" s="22" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B908" s="30" t="s">
         <v>1181</v>
       </c>
       <c r="C908" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D908" s="29"/>
       <c r="E908" s="22" t="s">
@@ -32741,13 +32743,13 @@
     </row>
     <row r="909" spans="1:9" ht="30">
       <c r="A909" s="22" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B909" s="30" t="s">
         <v>1181</v>
       </c>
       <c r="C909" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D909" s="29"/>
       <c r="E909" s="22" t="s">
@@ -32766,13 +32768,13 @@
     </row>
     <row r="910" spans="1:9" ht="30">
       <c r="A910" s="22" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B910" s="30" t="s">
         <v>1181</v>
       </c>
       <c r="C910" s="20" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D910" s="29"/>
       <c r="E910" s="22" t="s">
@@ -32822,7 +32824,7 @@
         <v>1181</v>
       </c>
       <c r="C912" s="20" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D912" s="29"/>
       <c r="E912" s="29" t="s">
@@ -32847,7 +32849,7 @@
         <v>1181</v>
       </c>
       <c r="C913" s="20" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D913" s="29"/>
       <c r="E913" s="29" t="s">
@@ -32897,7 +32899,7 @@
         <v>1182</v>
       </c>
       <c r="C915" s="20" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D915" s="29"/>
       <c r="E915" s="29" t="s">
@@ -32922,7 +32924,7 @@
         <v>1182</v>
       </c>
       <c r="C916" s="20" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D916" s="29"/>
       <c r="E916" s="29" t="s">
@@ -32947,7 +32949,7 @@
         <v>1182</v>
       </c>
       <c r="C917" s="20" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D917" s="29"/>
       <c r="E917" s="29" t="s">
@@ -32972,7 +32974,7 @@
         <v>1182</v>
       </c>
       <c r="C918" s="20" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D918" s="29"/>
       <c r="E918" s="29" t="s">
@@ -32997,7 +32999,7 @@
         <v>1182</v>
       </c>
       <c r="C919" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D919" s="29"/>
       <c r="E919" s="29" t="s">
@@ -33024,7 +33026,7 @@
         <v>1182</v>
       </c>
       <c r="C920" s="20" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D920" s="29"/>
       <c r="E920" s="29" t="s">
@@ -33049,7 +33051,7 @@
         <v>1182</v>
       </c>
       <c r="C921" s="20" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D921" s="29"/>
       <c r="E921" s="29" t="s">
@@ -33074,7 +33076,7 @@
         <v>1182</v>
       </c>
       <c r="C922" s="20" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D922" s="29"/>
       <c r="E922" s="29" t="s">
@@ -33099,7 +33101,7 @@
         <v>1182</v>
       </c>
       <c r="C923" s="20" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D923" s="29"/>
       <c r="E923" s="29" t="s">
@@ -33124,7 +33126,7 @@
         <v>1182</v>
       </c>
       <c r="C924" s="20" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D924" s="29"/>
       <c r="E924" s="29" t="s">
@@ -33149,7 +33151,7 @@
         <v>1182</v>
       </c>
       <c r="C925" s="20" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D925" s="29"/>
       <c r="E925" s="29" t="s">
@@ -33174,7 +33176,7 @@
         <v>1182</v>
       </c>
       <c r="C926" s="20" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D926" s="29"/>
       <c r="E926" s="29" t="s">
@@ -33199,7 +33201,7 @@
         <v>1182</v>
       </c>
       <c r="C927" s="20" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D927" s="29"/>
       <c r="E927" s="29" t="s">
@@ -33224,7 +33226,7 @@
         <v>1182</v>
       </c>
       <c r="C928" s="20" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D928" s="29"/>
       <c r="E928" s="29" t="s">
@@ -33249,7 +33251,7 @@
         <v>1182</v>
       </c>
       <c r="C929" s="20" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D929" s="29"/>
       <c r="E929" s="29" t="s">
@@ -33274,7 +33276,7 @@
         <v>1182</v>
       </c>
       <c r="C930" s="20" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D930" s="29"/>
       <c r="E930" s="29" t="s">
@@ -33299,7 +33301,7 @@
         <v>1182</v>
       </c>
       <c r="C931" s="20" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D931" s="29"/>
       <c r="E931" s="29" t="s">
@@ -33324,7 +33326,7 @@
         <v>1182</v>
       </c>
       <c r="C932" s="20" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D932" s="29"/>
       <c r="E932" s="29" t="s">
@@ -33349,7 +33351,7 @@
         <v>1182</v>
       </c>
       <c r="C933" s="20" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D933" s="29"/>
       <c r="E933" s="29" t="s">
@@ -33374,7 +33376,7 @@
         <v>1182</v>
       </c>
       <c r="C934" s="20" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D934" s="29"/>
       <c r="E934" s="29" t="s">
@@ -33399,7 +33401,7 @@
         <v>1182</v>
       </c>
       <c r="C935" s="20" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D935" s="29"/>
       <c r="E935" s="29" t="s">
@@ -33424,7 +33426,7 @@
         <v>1182</v>
       </c>
       <c r="C936" s="20" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D936" s="29"/>
       <c r="E936" s="29" t="s">
@@ -33449,7 +33451,7 @@
         <v>1182</v>
       </c>
       <c r="C937" s="20" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D937" s="29"/>
       <c r="E937" s="29" t="s">
@@ -33474,7 +33476,7 @@
         <v>1182</v>
       </c>
       <c r="C938" s="20" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D938" s="29"/>
       <c r="E938" s="29" t="s">
@@ -33499,7 +33501,7 @@
         <v>1182</v>
       </c>
       <c r="C939" s="20" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D939" s="29"/>
       <c r="E939" s="29" t="s">
@@ -33524,7 +33526,7 @@
         <v>1182</v>
       </c>
       <c r="C940" s="20" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D940" s="29"/>
       <c r="E940" s="29" t="s">
@@ -33543,13 +33545,13 @@
     </row>
     <row r="941" spans="1:9" ht="30">
       <c r="A941" s="22" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B941" s="24" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C941" s="20" t="s">
         <v>2404</v>
-      </c>
-      <c r="C941" s="20" t="s">
-        <v>2405</v>
       </c>
       <c r="D941" s="29"/>
       <c r="E941" s="22" t="s">
@@ -33568,13 +33570,13 @@
     </row>
     <row r="942" spans="1:9" ht="30">
       <c r="A942" s="22" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B942" s="24" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C942" s="20" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D942" s="29"/>
       <c r="E942" s="29" t="s">
@@ -33593,13 +33595,13 @@
     </row>
     <row r="943" spans="1:9" ht="30">
       <c r="A943" s="22" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B943" s="24" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C943" s="20" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D943" s="29"/>
       <c r="E943" s="29" t="s">
@@ -33618,13 +33620,13 @@
     </row>
     <row r="944" spans="1:9" ht="30">
       <c r="A944" s="22" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B944" s="24" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C944" s="20" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D944" s="29"/>
       <c r="E944" s="29" t="s">
@@ -33643,13 +33645,13 @@
     </row>
     <row r="945" spans="1:9" ht="30">
       <c r="A945" s="22" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B945" s="24" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C945" s="20" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D945" s="29"/>
       <c r="E945" s="29" t="s">
@@ -33668,13 +33670,13 @@
     </row>
     <row r="946" spans="1:9" ht="30">
       <c r="A946" s="22" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B946" s="24" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C946" s="20" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D946" s="29"/>
       <c r="E946" s="29" t="s">
@@ -33874,7 +33876,7 @@
         <v>1184</v>
       </c>
       <c r="C954" s="20" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D954" s="29"/>
       <c r="E954" s="29" t="s">
@@ -33949,7 +33951,7 @@
         <v>1184</v>
       </c>
       <c r="C957" s="20" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D957" s="29"/>
       <c r="E957" s="29" t="s">
@@ -33974,7 +33976,7 @@
         <v>1184</v>
       </c>
       <c r="C958" s="20" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D958" s="29"/>
       <c r="E958" s="29" t="s">
@@ -34024,7 +34026,7 @@
         <v>1184</v>
       </c>
       <c r="C960" s="20" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D960" s="29"/>
       <c r="E960" s="29" t="s">
@@ -34099,7 +34101,7 @@
         <v>1184</v>
       </c>
       <c r="C963" s="20" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D963" s="29"/>
       <c r="E963" s="29" t="s">
@@ -34124,7 +34126,7 @@
         <v>1184</v>
       </c>
       <c r="C964" s="20" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D964" s="29"/>
       <c r="E964" s="29" t="s">
@@ -34174,7 +34176,7 @@
         <v>1185</v>
       </c>
       <c r="C966" s="20" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D966" s="29"/>
       <c r="E966" s="29" t="s">
@@ -34199,7 +34201,7 @@
         <v>1185</v>
       </c>
       <c r="C967" s="20" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D967" s="29"/>
       <c r="E967" s="29" t="s">
@@ -34224,7 +34226,7 @@
         <v>1185</v>
       </c>
       <c r="C968" s="20" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D968" s="29"/>
       <c r="E968" s="29" t="s">
@@ -34249,7 +34251,7 @@
         <v>1185</v>
       </c>
       <c r="C969" s="20" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D969" s="29"/>
       <c r="E969" s="29" t="s">
@@ -34274,7 +34276,7 @@
         <v>1185</v>
       </c>
       <c r="C970" s="20" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D970" s="29"/>
       <c r="E970" s="29" t="s">
@@ -34301,7 +34303,7 @@
         <v>1185</v>
       </c>
       <c r="C971" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D971" s="29"/>
       <c r="E971" s="29" t="s">
@@ -34326,7 +34328,7 @@
         <v>1185</v>
       </c>
       <c r="C972" s="20" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D972" s="29"/>
       <c r="E972" s="29" t="s">
@@ -34351,7 +34353,7 @@
         <v>1185</v>
       </c>
       <c r="C973" s="20" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D973" s="29"/>
       <c r="E973" s="29" t="s">
@@ -34376,7 +34378,7 @@
         <v>1185</v>
       </c>
       <c r="C974" s="20" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D974" s="29"/>
       <c r="E974" s="29" t="s">
@@ -34401,7 +34403,7 @@
         <v>1185</v>
       </c>
       <c r="C975" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D975" s="29"/>
       <c r="E975" s="29" t="s">
@@ -34426,7 +34428,7 @@
         <v>1185</v>
       </c>
       <c r="C976" s="20" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D976" s="29"/>
       <c r="E976" s="29" t="s">
@@ -34451,7 +34453,7 @@
         <v>1185</v>
       </c>
       <c r="C977" s="20" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D977" s="29"/>
       <c r="E977" s="29" t="s">
@@ -34476,7 +34478,7 @@
         <v>1185</v>
       </c>
       <c r="C978" s="20" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D978" s="29"/>
       <c r="E978" s="29" t="s">
@@ -34501,7 +34503,7 @@
         <v>1185</v>
       </c>
       <c r="C979" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D979" s="29"/>
       <c r="E979" s="29" t="s">
@@ -34526,7 +34528,7 @@
         <v>1185</v>
       </c>
       <c r="C980" s="20" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D980" s="29"/>
       <c r="E980" s="29" t="s">
@@ -34551,7 +34553,7 @@
         <v>1185</v>
       </c>
       <c r="C981" s="20" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D981" s="29"/>
       <c r="E981" s="29" t="s">
@@ -34576,7 +34578,7 @@
         <v>1185</v>
       </c>
       <c r="C982" s="20" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D982" s="29"/>
       <c r="E982" s="29" t="s">
@@ -34601,7 +34603,7 @@
         <v>1185</v>
       </c>
       <c r="C983" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D983" s="29"/>
       <c r="E983" s="29" t="s">
@@ -34626,7 +34628,7 @@
         <v>1185</v>
       </c>
       <c r="C984" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D984" s="29"/>
       <c r="E984" s="29" t="s">
@@ -34651,7 +34653,7 @@
         <v>1185</v>
       </c>
       <c r="C985" s="20" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D985" s="29"/>
       <c r="E985" s="29" t="s">
@@ -34670,13 +34672,13 @@
     </row>
     <row r="986" spans="1:9" ht="30">
       <c r="A986" s="22" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B986" s="24" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C986" s="20" t="s">
         <v>2445</v>
-      </c>
-      <c r="C986" s="20" t="s">
-        <v>2446</v>
       </c>
       <c r="D986" s="29"/>
       <c r="E986" s="22" t="s">
@@ -34695,13 +34697,13 @@
     </row>
     <row r="987" spans="1:9" ht="30">
       <c r="A987" s="22" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B987" s="24" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C987" s="20" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D987" s="29"/>
       <c r="E987" s="29" t="s">
@@ -34720,13 +34722,13 @@
     </row>
     <row r="988" spans="1:9" ht="30">
       <c r="A988" s="22" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B988" s="24" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C988" s="20" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D988" s="29"/>
       <c r="E988" s="29" t="s">
@@ -34745,13 +34747,13 @@
     </row>
     <row r="989" spans="1:9" ht="30">
       <c r="A989" s="22" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B989" s="24" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C989" s="20" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D989" s="29"/>
       <c r="E989" s="29" t="s">
@@ -34770,13 +34772,13 @@
     </row>
     <row r="990" spans="1:9" ht="30">
       <c r="A990" s="22" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B990" s="24" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C990" s="20" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D990" s="29"/>
       <c r="E990" s="29" t="s">
@@ -34795,13 +34797,13 @@
     </row>
     <row r="991" spans="1:9" ht="30">
       <c r="A991" s="22" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B991" s="24" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C991" s="20" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D991" s="29"/>
       <c r="E991" s="29" t="s">
@@ -35051,7 +35053,7 @@
         <v>1187</v>
       </c>
       <c r="C1001" s="20" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D1001" s="29"/>
       <c r="E1001" s="29" t="s">
@@ -35076,7 +35078,7 @@
         <v>1187</v>
       </c>
       <c r="C1002" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1002" s="29"/>
       <c r="E1002" s="29" t="s">
@@ -35126,7 +35128,7 @@
         <v>1187</v>
       </c>
       <c r="C1004" s="20" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1004" s="29"/>
       <c r="E1004" s="29" t="s">
@@ -35151,7 +35153,7 @@
         <v>1187</v>
       </c>
       <c r="C1005" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1005" s="29"/>
       <c r="E1005" s="29" t="s">
@@ -35201,7 +35203,7 @@
         <v>1187</v>
       </c>
       <c r="C1007" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1007" s="29"/>
       <c r="E1007" s="29" t="s">
@@ -35226,7 +35228,7 @@
         <v>1187</v>
       </c>
       <c r="C1008" s="20" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D1008" s="29"/>
       <c r="E1008" s="29" t="s">
@@ -35301,7 +35303,7 @@
         <v>1187</v>
       </c>
       <c r="C1011" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1011" s="29"/>
       <c r="E1011" s="29" t="s">
@@ -35351,7 +35353,7 @@
         <v>1187</v>
       </c>
       <c r="C1013" s="20" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D1013" s="29"/>
       <c r="E1013" s="29" t="s">
@@ -35376,7 +35378,7 @@
         <v>1187</v>
       </c>
       <c r="C1014" s="20" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D1014" s="29"/>
       <c r="E1014" s="29" t="s">
@@ -35426,7 +35428,7 @@
         <v>1187</v>
       </c>
       <c r="C1016" s="20" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D1016" s="29"/>
       <c r="E1016" s="29" t="s">
@@ -35451,7 +35453,7 @@
         <v>1187</v>
       </c>
       <c r="C1017" s="20" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1017" s="29"/>
       <c r="E1017" s="29" t="s">
@@ -35501,7 +35503,7 @@
         <v>1188</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D1019" s="29"/>
       <c r="E1019" s="29" t="s">
@@ -35526,7 +35528,7 @@
         <v>1188</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1020" s="29"/>
       <c r="E1020" s="29" t="s">
@@ -35551,7 +35553,7 @@
         <v>1188</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D1021" s="29"/>
       <c r="E1021" s="29" t="s">
@@ -35576,7 +35578,7 @@
         <v>1188</v>
       </c>
       <c r="C1022" s="20" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D1022" s="29"/>
       <c r="E1022" s="29" t="s">
@@ -35601,7 +35603,7 @@
         <v>1188</v>
       </c>
       <c r="C1023" s="20" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D1023" s="29"/>
       <c r="E1023" s="29" t="s">
@@ -35628,7 +35630,7 @@
         <v>1188</v>
       </c>
       <c r="C1024" s="20" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D1024" s="29"/>
       <c r="E1024" s="29" t="s">
@@ -35653,7 +35655,7 @@
         <v>1188</v>
       </c>
       <c r="C1025" s="20" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D1025" s="29"/>
       <c r="E1025" s="29" t="s">
@@ -35678,7 +35680,7 @@
         <v>1188</v>
       </c>
       <c r="C1026" s="20" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D1026" s="29"/>
       <c r="E1026" s="29" t="s">
@@ -35703,7 +35705,7 @@
         <v>1188</v>
       </c>
       <c r="C1027" s="20" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D1027" s="29"/>
       <c r="E1027" s="29" t="s">
@@ -35728,7 +35730,7 @@
         <v>1188</v>
       </c>
       <c r="C1028" s="20" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D1028" s="29"/>
       <c r="E1028" s="29" t="s">
@@ -35753,7 +35755,7 @@
         <v>1188</v>
       </c>
       <c r="C1029" s="20" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D1029" s="29"/>
       <c r="E1029" s="29" t="s">
@@ -35778,7 +35780,7 @@
         <v>1188</v>
       </c>
       <c r="C1030" s="20" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1030" s="29"/>
       <c r="E1030" s="29" t="s">
@@ -35803,7 +35805,7 @@
         <v>1188</v>
       </c>
       <c r="C1031" s="20" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D1031" s="29"/>
       <c r="E1031" s="29" t="s">
@@ -35828,7 +35830,7 @@
         <v>1188</v>
       </c>
       <c r="C1032" s="20" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D1032" s="29"/>
       <c r="E1032" s="29" t="s">
@@ -35853,7 +35855,7 @@
         <v>1188</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D1033" s="29"/>
       <c r="E1033" s="29" t="s">
@@ -35878,7 +35880,7 @@
         <v>1188</v>
       </c>
       <c r="C1034" s="20" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D1034" s="29"/>
       <c r="E1034" s="29" t="s">
@@ -35903,7 +35905,7 @@
         <v>1188</v>
       </c>
       <c r="C1035" s="20" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D1035" s="29"/>
       <c r="E1035" s="29" t="s">
@@ -35928,7 +35930,7 @@
         <v>1188</v>
       </c>
       <c r="C1036" s="20" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D1036" s="29"/>
       <c r="E1036" s="29" t="s">
@@ -35953,7 +35955,7 @@
         <v>1188</v>
       </c>
       <c r="C1037" s="20" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D1037" s="29"/>
       <c r="E1037" s="29" t="s">
@@ -35978,7 +35980,7 @@
         <v>1188</v>
       </c>
       <c r="C1038" s="20" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D1038" s="29"/>
       <c r="E1038" s="29" t="s">
@@ -36003,7 +36005,7 @@
         <v>1188</v>
       </c>
       <c r="C1039" s="20" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D1039" s="29"/>
       <c r="E1039" s="29" t="s">
@@ -36028,7 +36030,7 @@
         <v>1188</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1040" s="29"/>
       <c r="E1040" s="29" t="s">
@@ -36047,13 +36049,13 @@
     </row>
     <row r="1041" spans="1:9" ht="30">
       <c r="A1041" s="22" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B1041" s="24" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C1041" s="20" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1041" s="29"/>
       <c r="E1041" s="22" t="s">
@@ -36072,13 +36074,13 @@
     </row>
     <row r="1042" spans="1:9" ht="30">
       <c r="A1042" s="22" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B1042" s="24" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1042" s="29"/>
       <c r="E1042" s="29" t="s">
@@ -36097,13 +36099,13 @@
     </row>
     <row r="1043" spans="1:9" ht="30">
       <c r="A1043" s="22" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B1043" s="24" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D1043" s="29"/>
       <c r="E1043" s="29" t="s">
@@ -36122,13 +36124,13 @@
     </row>
     <row r="1044" spans="1:9" ht="30">
       <c r="A1044" s="22" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B1044" s="24" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C1044" s="20" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D1044" s="29"/>
       <c r="E1044" s="29" t="s">
@@ -36147,13 +36149,13 @@
     </row>
     <row r="1045" spans="1:9" ht="30">
       <c r="A1045" s="22" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B1045" s="24" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C1045" s="20" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D1045" s="29"/>
       <c r="E1045" s="29" t="s">
@@ -36172,13 +36174,13 @@
     </row>
     <row r="1046" spans="1:9" ht="30">
       <c r="A1046" s="22" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B1046" s="24" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C1046" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1046" s="29"/>
       <c r="E1046" s="29" t="s">
@@ -36378,7 +36380,7 @@
         <v>1190</v>
       </c>
       <c r="C1054" s="20" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D1054" s="29"/>
       <c r="E1054" s="29" t="s">
@@ -36403,7 +36405,7 @@
         <v>1190</v>
       </c>
       <c r="C1055" s="20" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D1055" s="29"/>
       <c r="E1055" s="29" t="s">
@@ -36453,7 +36455,7 @@
         <v>1190</v>
       </c>
       <c r="C1057" s="20" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D1057" s="29"/>
       <c r="E1057" s="29" t="s">
@@ -36528,7 +36530,7 @@
         <v>1190</v>
       </c>
       <c r="C1060" s="20" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D1060" s="29"/>
       <c r="E1060" s="29" t="s">
@@ -36553,7 +36555,7 @@
         <v>1190</v>
       </c>
       <c r="C1061" s="20" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D1061" s="29"/>
       <c r="E1061" s="29" t="s">
@@ -36603,7 +36605,7 @@
         <v>1191</v>
       </c>
       <c r="C1063" s="20" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D1063" s="29"/>
       <c r="E1063" s="29" t="s">
@@ -36628,7 +36630,7 @@
         <v>1191</v>
       </c>
       <c r="C1064" s="20" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D1064" s="29"/>
       <c r="E1064" s="29" t="s">
@@ -36653,7 +36655,7 @@
         <v>1191</v>
       </c>
       <c r="C1065" s="20" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D1065" s="29"/>
       <c r="E1065" s="29" t="s">
@@ -36678,7 +36680,7 @@
         <v>1191</v>
       </c>
       <c r="C1066" s="20" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="D1066" s="29"/>
       <c r="E1066" s="29" t="s">
@@ -36703,7 +36705,7 @@
         <v>1191</v>
       </c>
       <c r="C1067" s="20" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D1067" s="29"/>
       <c r="E1067" s="29" t="s">
@@ -36730,7 +36732,7 @@
         <v>1191</v>
       </c>
       <c r="C1068" s="20" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D1068" s="29"/>
       <c r="E1068" s="29" t="s">
@@ -36755,7 +36757,7 @@
         <v>1191</v>
       </c>
       <c r="C1069" s="20" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D1069" s="29"/>
       <c r="E1069" s="29" t="s">
@@ -36780,7 +36782,7 @@
         <v>1191</v>
       </c>
       <c r="C1070" s="20" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D1070" s="29"/>
       <c r="E1070" s="29" t="s">
@@ -36805,7 +36807,7 @@
         <v>1191</v>
       </c>
       <c r="C1071" s="20" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D1071" s="29"/>
       <c r="E1071" s="29" t="s">
@@ -36830,7 +36832,7 @@
         <v>1191</v>
       </c>
       <c r="C1072" s="20" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D1072" s="29"/>
       <c r="E1072" s="29" t="s">
@@ -36855,7 +36857,7 @@
         <v>1191</v>
       </c>
       <c r="C1073" s="20" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D1073" s="29"/>
       <c r="E1073" s="29" t="s">
@@ -36880,7 +36882,7 @@
         <v>1191</v>
       </c>
       <c r="C1074" s="20" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D1074" s="29"/>
       <c r="E1074" s="29" t="s">
@@ -36905,7 +36907,7 @@
         <v>1191</v>
       </c>
       <c r="C1075" s="20" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D1075" s="29"/>
       <c r="E1075" s="29" t="s">
@@ -36930,7 +36932,7 @@
         <v>1191</v>
       </c>
       <c r="C1076" s="20" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D1076" s="29"/>
       <c r="E1076" s="29" t="s">
@@ -36955,7 +36957,7 @@
         <v>1191</v>
       </c>
       <c r="C1077" s="20" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="D1077" s="29"/>
       <c r="E1077" s="29" t="s">
@@ -36980,7 +36982,7 @@
         <v>1191</v>
       </c>
       <c r="C1078" s="20" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D1078" s="29"/>
       <c r="E1078" s="29" t="s">
@@ -36999,13 +37001,13 @@
     </row>
     <row r="1079" spans="1:9" ht="30">
       <c r="A1079" s="22" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B1079" s="24" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C1079" s="20" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D1079" s="29"/>
       <c r="E1079" s="22" t="s">
@@ -37024,13 +37026,13 @@
     </row>
     <row r="1080" spans="1:9" ht="30">
       <c r="A1080" s="22" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B1080" s="24" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C1080" s="20" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D1080" s="29"/>
       <c r="E1080" s="29" t="s">
@@ -37049,13 +37051,13 @@
     </row>
     <row r="1081" spans="1:9" ht="30">
       <c r="A1081" s="22" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B1081" s="24" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C1081" s="20" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D1081" s="29"/>
       <c r="E1081" s="29" t="s">
@@ -37074,13 +37076,13 @@
     </row>
     <row r="1082" spans="1:9" ht="30">
       <c r="A1082" s="22" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B1082" s="24" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C1082" s="20" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D1082" s="29"/>
       <c r="E1082" s="29" t="s">
@@ -37099,13 +37101,13 @@
     </row>
     <row r="1083" spans="1:9" ht="30">
       <c r="A1083" s="22" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B1083" s="24" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C1083" s="20" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="D1083" s="29"/>
       <c r="E1083" s="29" t="s">
@@ -37124,13 +37126,13 @@
     </row>
     <row r="1084" spans="1:9" ht="30">
       <c r="A1084" s="22" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B1084" s="24" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C1084" s="20" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="D1084" s="29"/>
       <c r="E1084" s="29" t="s">
@@ -37330,7 +37332,7 @@
         <v>1193</v>
       </c>
       <c r="C1092" s="20" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="D1092" s="29"/>
       <c r="E1092" s="29" t="s">
@@ -37355,7 +37357,7 @@
         <v>1193</v>
       </c>
       <c r="C1093" s="20" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D1093" s="29"/>
       <c r="E1093" s="29" t="s">
@@ -37380,7 +37382,7 @@
         <v>1193</v>
       </c>
       <c r="C1094" s="20" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="D1094" s="29"/>
       <c r="E1094" s="29" t="s">
@@ -37430,7 +37432,7 @@
         <v>1194</v>
       </c>
       <c r="C1096" s="20" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="D1096" s="29"/>
       <c r="E1096" s="29" t="s">
@@ -37455,7 +37457,7 @@
         <v>1194</v>
       </c>
       <c r="C1097" s="20" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D1097" s="29"/>
       <c r="E1097" s="29" t="s">
@@ -37480,7 +37482,7 @@
         <v>1194</v>
       </c>
       <c r="C1098" s="20" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D1098" s="29"/>
       <c r="E1098" s="29" t="s">
@@ -37505,7 +37507,7 @@
         <v>1194</v>
       </c>
       <c r="C1099" s="20" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D1099" s="29"/>
       <c r="E1099" s="29" t="s">
@@ -37530,7 +37532,7 @@
         <v>1194</v>
       </c>
       <c r="C1100" s="20" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="D1100" s="29"/>
       <c r="E1100" s="29" t="s">
@@ -37557,7 +37559,7 @@
         <v>1194</v>
       </c>
       <c r="C1101" s="20" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D1101" s="29"/>
       <c r="E1101" s="29" t="s">
@@ -37582,7 +37584,7 @@
         <v>1194</v>
       </c>
       <c r="C1102" s="20" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D1102" s="29"/>
       <c r="E1102" s="29" t="s">
@@ -37607,7 +37609,7 @@
         <v>1194</v>
       </c>
       <c r="C1103" s="20" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="D1103" s="29"/>
       <c r="E1103" s="29" t="s">
@@ -37632,7 +37634,7 @@
         <v>1194</v>
       </c>
       <c r="C1104" s="20" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D1104" s="29"/>
       <c r="E1104" s="29" t="s">
@@ -37651,13 +37653,13 @@
     </row>
     <row r="1105" spans="1:9" ht="30">
       <c r="A1105" s="22" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B1105" s="24" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C1105" s="20" t="s">
         <v>2536</v>
-      </c>
-      <c r="C1105" s="20" t="s">
-        <v>2537</v>
       </c>
       <c r="D1105" s="29"/>
       <c r="E1105" s="22" t="s">
@@ -37676,13 +37678,13 @@
     </row>
     <row r="1106" spans="1:9" ht="30">
       <c r="A1106" s="22" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B1106" s="24" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C1106" s="20" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D1106" s="29"/>
       <c r="E1106" s="29" t="s">
@@ -37701,13 +37703,13 @@
     </row>
     <row r="1107" spans="1:9" ht="30">
       <c r="A1107" s="22" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B1107" s="24" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C1107" s="20" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D1107" s="29"/>
       <c r="E1107" s="29" t="s">
@@ -37726,13 +37728,13 @@
     </row>
     <row r="1108" spans="1:9" ht="30">
       <c r="A1108" s="22" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B1108" s="24" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C1108" s="20" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="D1108" s="29"/>
       <c r="E1108" s="29" t="s">
@@ -37751,13 +37753,13 @@
     </row>
     <row r="1109" spans="1:9" ht="30">
       <c r="A1109" s="22" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B1109" s="24" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C1109" s="20" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D1109" s="29"/>
       <c r="E1109" s="29" t="s">
@@ -37776,13 +37778,13 @@
     </row>
     <row r="1110" spans="1:9" ht="30">
       <c r="A1110" s="22" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B1110" s="24" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C1110" s="20" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D1110" s="29"/>
       <c r="E1110" s="29" t="s">
@@ -37982,7 +37984,7 @@
         <v>1196</v>
       </c>
       <c r="C1118" s="20" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D1118" s="29"/>
       <c r="E1118" s="29" t="s">
@@ -38032,7 +38034,7 @@
         <v>1196</v>
       </c>
       <c r="C1120" s="20" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D1120" s="29"/>
       <c r="E1120" s="29" t="s">
@@ -38057,7 +38059,7 @@
         <v>1196</v>
       </c>
       <c r="C1121" s="20" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D1121" s="29"/>
       <c r="E1121" s="29" t="s">
@@ -38107,7 +38109,7 @@
         <v>1197</v>
       </c>
       <c r="C1123" s="20" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D1123" s="29"/>
       <c r="E1123" s="29" t="s">
@@ -38132,7 +38134,7 @@
         <v>1197</v>
       </c>
       <c r="C1124" s="20" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D1124" s="29"/>
       <c r="E1124" s="29" t="s">
@@ -38157,7 +38159,7 @@
         <v>1197</v>
       </c>
       <c r="C1125" s="20" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D1125" s="29"/>
       <c r="E1125" s="29" t="s">
@@ -38182,7 +38184,7 @@
         <v>1197</v>
       </c>
       <c r="C1126" s="20" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="D1126" s="29"/>
       <c r="E1126" s="29" t="s">
@@ -38207,7 +38209,7 @@
         <v>1197</v>
       </c>
       <c r="C1127" s="20" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D1127" s="29"/>
       <c r="E1127" s="29" t="s">
@@ -38234,7 +38236,7 @@
         <v>1197</v>
       </c>
       <c r="C1128" s="20" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="D1128" s="29"/>
       <c r="E1128" s="29" t="s">
@@ -38259,7 +38261,7 @@
         <v>1197</v>
       </c>
       <c r="C1129" s="20" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D1129" s="29"/>
       <c r="E1129" s="29" t="s">
@@ -38284,7 +38286,7 @@
         <v>1197</v>
       </c>
       <c r="C1130" s="20" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D1130" s="29"/>
       <c r="E1130" s="29" t="s">
@@ -38309,7 +38311,7 @@
         <v>1197</v>
       </c>
       <c r="C1131" s="20" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="D1131" s="29"/>
       <c r="E1131" s="29" t="s">
@@ -38328,13 +38330,13 @@
     </row>
     <row r="1132" spans="1:9" ht="30">
       <c r="A1132" s="22" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B1132" s="24" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1132" s="20" t="s">
         <v>2555</v>
-      </c>
-      <c r="C1132" s="20" t="s">
-        <v>2556</v>
       </c>
       <c r="D1132" s="29"/>
       <c r="E1132" s="22" t="s">
@@ -38353,13 +38355,13 @@
     </row>
     <row r="1133" spans="1:9" ht="30">
       <c r="A1133" s="22" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B1133" s="24" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C1133" s="20" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D1133" s="29"/>
       <c r="E1133" s="29" t="s">
@@ -38378,13 +38380,13 @@
     </row>
     <row r="1134" spans="1:9" ht="30">
       <c r="A1134" s="22" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B1134" s="24" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C1134" s="20" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D1134" s="29"/>
       <c r="E1134" s="29" t="s">
@@ -38403,13 +38405,13 @@
     </row>
     <row r="1135" spans="1:9" ht="30">
       <c r="A1135" s="22" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B1135" s="24" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C1135" s="20" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="D1135" s="29"/>
       <c r="E1135" s="29" t="s">
@@ -38428,13 +38430,13 @@
     </row>
     <row r="1136" spans="1:9" ht="30">
       <c r="A1136" s="22" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B1136" s="24" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C1136" s="20" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D1136" s="29"/>
       <c r="E1136" s="29" t="s">
@@ -38453,13 +38455,13 @@
     </row>
     <row r="1137" spans="1:9" ht="30">
       <c r="A1137" s="22" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B1137" s="24" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C1137" s="20" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="D1137" s="29"/>
       <c r="E1137" s="29" t="s">
@@ -39934,7 +39936,7 @@
         <v>1208</v>
       </c>
       <c r="C1196" s="20" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="D1196" s="29"/>
       <c r="E1196" s="29" t="s">
@@ -40886,7 +40888,7 @@
         <v>1216</v>
       </c>
       <c r="C1234" s="20" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D1234" s="29"/>
       <c r="E1234" s="29" t="s">
@@ -40905,13 +40907,13 @@
     </row>
     <row r="1235" spans="1:9" ht="45">
       <c r="A1235" s="22" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B1235" s="30" t="s">
         <v>1216</v>
       </c>
       <c r="C1235" s="20" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D1235" s="29"/>
       <c r="E1235" s="29" t="s">
@@ -40936,7 +40938,7 @@
         <v>1216</v>
       </c>
       <c r="C1236" s="20" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D1236" s="29"/>
       <c r="E1236" s="29" t="s">
@@ -40961,7 +40963,7 @@
         <v>1216</v>
       </c>
       <c r="C1237" s="20" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D1237" s="29"/>
       <c r="E1237" s="29" t="s">
@@ -40980,13 +40982,13 @@
     </row>
     <row r="1238" spans="1:9" ht="45">
       <c r="A1238" s="22" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B1238" s="30" t="s">
         <v>1216</v>
       </c>
       <c r="C1238" s="20" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="D1238" s="29"/>
       <c r="E1238" s="29" t="s">
@@ -41390,7 +41392,7 @@
         <v>1217</v>
       </c>
       <c r="C1254" s="20" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D1254" s="29"/>
       <c r="E1254" s="29" t="s">
@@ -41409,13 +41411,13 @@
     </row>
     <row r="1255" spans="1:9" ht="45">
       <c r="A1255" s="22" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B1255" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1255" s="20" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D1255" s="29"/>
       <c r="E1255" s="22" t="s">
@@ -41484,13 +41486,13 @@
     </row>
     <row r="1258" spans="1:9" ht="45">
       <c r="A1258" s="22" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B1258" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1258" s="20" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="D1258" s="29"/>
       <c r="E1258" s="22" t="s">
@@ -41590,7 +41592,7 @@
         <v>1217</v>
       </c>
       <c r="C1262" s="20" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D1262" s="29"/>
       <c r="E1262" s="29" t="s">
@@ -41615,7 +41617,7 @@
         <v>1217</v>
       </c>
       <c r="C1263" s="20" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D1263" s="29"/>
       <c r="E1263" s="29" t="s">
@@ -41640,7 +41642,7 @@
         <v>1217</v>
       </c>
       <c r="C1264" s="20" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D1264" s="29"/>
       <c r="E1264" s="29" t="s">
@@ -41659,13 +41661,13 @@
     </row>
     <row r="1265" spans="1:9" ht="30">
       <c r="A1265" s="22" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1265" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1265" s="20" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="D1265" s="29"/>
       <c r="E1265" s="22" t="s">
@@ -41684,13 +41686,13 @@
     </row>
     <row r="1266" spans="1:9" ht="30">
       <c r="A1266" s="22" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B1266" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1266" s="20" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D1266" s="29"/>
       <c r="E1266" s="22" t="s">
@@ -41709,13 +41711,13 @@
     </row>
     <row r="1267" spans="1:9" ht="30">
       <c r="A1267" s="22" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B1267" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1267" s="20" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D1267" s="29"/>
       <c r="E1267" s="22" t="s">
@@ -41734,13 +41736,13 @@
     </row>
     <row r="1268" spans="1:9" ht="45">
       <c r="A1268" s="22" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B1268" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1268" s="20" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D1268" s="29"/>
       <c r="E1268" s="22" t="s">
@@ -41759,13 +41761,13 @@
     </row>
     <row r="1269" spans="1:9" ht="60">
       <c r="A1269" s="22" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B1269" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1269" s="20" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D1269" s="29"/>
       <c r="E1269" s="22" t="s">
@@ -41890,7 +41892,7 @@
         <v>1219</v>
       </c>
       <c r="C1274" s="20" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D1274" s="29"/>
       <c r="E1274" s="29" t="s">
@@ -41909,13 +41911,13 @@
     </row>
     <row r="1275" spans="1:9" ht="45">
       <c r="A1275" s="22" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B1275" s="30" t="s">
         <v>1219</v>
       </c>
       <c r="C1275" s="20" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D1275" s="29"/>
       <c r="E1275" s="29" t="s">
@@ -41927,20 +41929,20 @@
       <c r="G1275" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H1275" s="29" t="s">
-        <v>20</v>
+      <c r="H1275" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I1275" s="31"/>
     </row>
     <row r="1276" spans="1:9" ht="45">
       <c r="A1276" s="22" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B1276" s="30" t="s">
         <v>1219</v>
       </c>
       <c r="C1276" s="20" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D1276" s="29"/>
       <c r="E1276" s="22" t="s">
@@ -41965,7 +41967,7 @@
         <v>1219</v>
       </c>
       <c r="C1277" s="20" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="D1277" s="29"/>
       <c r="E1277" s="29" t="s">
@@ -41990,7 +41992,7 @@
         <v>1219</v>
       </c>
       <c r="C1278" s="20" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="D1278" s="29"/>
       <c r="E1278" s="29" t="s">
@@ -42009,13 +42011,13 @@
     </row>
     <row r="1279" spans="1:9" ht="45">
       <c r="A1279" s="22" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B1279" s="30" t="s">
         <v>1219</v>
       </c>
       <c r="C1279" s="20" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D1279" s="29"/>
       <c r="E1279" s="22" t="s">
@@ -42034,13 +42036,13 @@
     </row>
     <row r="1280" spans="1:9" ht="30">
       <c r="A1280" s="22" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B1280" s="30" t="s">
         <v>1219</v>
       </c>
       <c r="C1280" s="20" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D1280" s="29"/>
       <c r="E1280" s="22" t="s">
@@ -42065,7 +42067,7 @@
         <v>1219</v>
       </c>
       <c r="C1281" s="20" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="D1281" s="29"/>
       <c r="E1281" s="29" t="s">
@@ -42090,7 +42092,7 @@
         <v>1219</v>
       </c>
       <c r="C1282" s="20" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="D1282" s="29"/>
       <c r="E1282" s="29" t="s">
@@ -42115,7 +42117,7 @@
         <v>1219</v>
       </c>
       <c r="C1283" s="20" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D1283" s="29"/>
       <c r="E1283" s="29" t="s">
@@ -42265,7 +42267,7 @@
         <v>1220</v>
       </c>
       <c r="C1289" s="20" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="D1289" s="29"/>
       <c r="E1289" s="29" t="s">
@@ -42290,7 +42292,7 @@
         <v>1220</v>
       </c>
       <c r="C1290" s="20" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D1290" s="29"/>
       <c r="E1290" s="29" t="s">
@@ -42469,7 +42471,7 @@
         <v>1221</v>
       </c>
       <c r="C1297" s="20" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D1297" s="29"/>
       <c r="E1297" s="29" t="s">
@@ -42663,16 +42665,16 @@
     </row>
     <row r="1305" spans="1:9" ht="45">
       <c r="A1305" s="22" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B1305" s="24" t="s">
         <v>1223</v>
       </c>
       <c r="C1305" s="20" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D1305" s="22" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="E1305" s="22" t="s">
         <v>22</v>
@@ -42687,7 +42689,7 @@
         <v>20</v>
       </c>
       <c r="I1305" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1306" spans="1:9" ht="30">
@@ -42900,11 +42902,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -42912,35 +42909,40 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I124 A1306:I1313 A1305:H1305 A20:H1302 A69:I1304">
-    <cfRule type="expression" dxfId="7" priority="53">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I124 A1306:I1313 A1305:H1305 A20:H1302 A69:I1304">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F1313">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -10034,9 +10034,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -11610,7 +11608,7 @@
         <v>15</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I69" s="31"/>
     </row>
@@ -11660,7 +11658,7 @@
         <v>15</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I71" s="31"/>
     </row>
@@ -12214,7 +12212,7 @@
         <v>15</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I93" s="31"/>
     </row>
@@ -12314,7 +12312,7 @@
         <v>15</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I97" s="31"/>
     </row>
@@ -12339,7 +12337,7 @@
         <v>15</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I98" s="31"/>
     </row>
@@ -12820,13 +12818,13 @@
         <v>19</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G117" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I117" s="31"/>
     </row>
@@ -12876,7 +12874,7 @@
         <v>15</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I119" s="31"/>
     </row>
@@ -12931,7 +12929,7 @@
       <c r="I121" s="31"/>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="29" t="s">
+      <c r="A122" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B122" s="30" t="s">
@@ -13095,7 +13093,7 @@
         <v>19</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G128" s="29" t="s">
         <v>15</v>
@@ -13120,7 +13118,7 @@
         <v>19</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G129" s="29" t="s">
         <v>15</v>
@@ -13145,7 +13143,7 @@
         <v>19</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G130" s="29" t="s">
         <v>15</v>
@@ -13170,7 +13168,7 @@
         <v>19</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G131" s="29" t="s">
         <v>16</v>
@@ -15011,7 +15009,7 @@
         <v>15</v>
       </c>
       <c r="H202" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I202" s="31"/>
     </row>
@@ -15036,7 +15034,7 @@
         <v>15</v>
       </c>
       <c r="H203" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I203" s="31"/>
     </row>
@@ -16863,7 +16861,7 @@
         <v>15</v>
       </c>
       <c r="H276" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I276" s="31"/>
     </row>
@@ -16888,7 +16886,7 @@
         <v>15</v>
       </c>
       <c r="H277" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I277" s="31"/>
     </row>
@@ -16913,7 +16911,7 @@
         <v>15</v>
       </c>
       <c r="H278" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I278" s="31"/>
     </row>
@@ -16963,7 +16961,7 @@
         <v>15</v>
       </c>
       <c r="H280" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I280" s="31"/>
     </row>
@@ -16988,7 +16986,7 @@
         <v>15</v>
       </c>
       <c r="H281" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I281" s="31"/>
     </row>
@@ -18015,7 +18013,7 @@
         <v>15</v>
       </c>
       <c r="H322" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I322" s="31"/>
     </row>
@@ -18040,7 +18038,7 @@
         <v>15</v>
       </c>
       <c r="H323" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I323" s="31"/>
     </row>
@@ -18065,7 +18063,7 @@
         <v>15</v>
       </c>
       <c r="H324" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I324" s="31"/>
     </row>
@@ -18115,7 +18113,7 @@
         <v>15</v>
       </c>
       <c r="H326" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I326" s="31"/>
     </row>
@@ -18140,7 +18138,7 @@
         <v>15</v>
       </c>
       <c r="H327" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I327" s="31"/>
     </row>
@@ -18592,7 +18590,7 @@
         <v>15</v>
       </c>
       <c r="H345" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I345" s="31"/>
     </row>
@@ -18617,7 +18615,7 @@
         <v>15</v>
       </c>
       <c r="H346" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I346" s="31"/>
     </row>
@@ -18642,7 +18640,7 @@
         <v>15</v>
       </c>
       <c r="H347" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I347" s="31"/>
     </row>
@@ -18667,7 +18665,7 @@
         <v>15</v>
       </c>
       <c r="H348" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I348" s="31"/>
     </row>
@@ -18692,7 +18690,7 @@
         <v>15</v>
       </c>
       <c r="H349" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I349" s="31"/>
     </row>
@@ -19419,7 +19417,7 @@
         <v>15</v>
       </c>
       <c r="H378" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I378" s="31"/>
     </row>
@@ -19444,7 +19442,7 @@
         <v>15</v>
       </c>
       <c r="H379" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I379" s="31"/>
     </row>
@@ -19469,7 +19467,7 @@
         <v>15</v>
       </c>
       <c r="H380" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I380" s="31"/>
     </row>
@@ -19494,7 +19492,7 @@
         <v>15</v>
       </c>
       <c r="H381" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I381" s="31"/>
     </row>
@@ -19519,7 +19517,7 @@
         <v>15</v>
       </c>
       <c r="H382" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I382" s="31"/>
     </row>
@@ -40976,7 +40974,7 @@
         <v>15</v>
       </c>
       <c r="H1237" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1237" s="31"/>
     </row>
@@ -41380,7 +41378,7 @@
         <v>15</v>
       </c>
       <c r="H1253" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1253" s="31"/>
     </row>
@@ -42005,7 +42003,7 @@
         <v>15</v>
       </c>
       <c r="H1278" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1278" s="31"/>
     </row>
@@ -42105,7 +42103,7 @@
         <v>15</v>
       </c>
       <c r="H1282" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1282" s="31"/>
     </row>
@@ -42180,7 +42178,7 @@
         <v>15</v>
       </c>
       <c r="H1285" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1285" s="31"/>
     </row>
@@ -42305,7 +42303,7 @@
         <v>15</v>
       </c>
       <c r="H1290" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1290" s="31"/>
     </row>

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -9108,21 +9108,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9146,6 +9131,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10088,127 +10088,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10221,12 +10221,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10239,12 +10239,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10257,12 +10257,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10275,60 +10275,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -41403,7 +41403,7 @@
         <v>15</v>
       </c>
       <c r="H1254" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1254" s="31"/>
     </row>
@@ -42278,7 +42278,7 @@
         <v>15</v>
       </c>
       <c r="H1289" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1289" s="31"/>
     </row>
@@ -42900,6 +42900,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -42907,11 +42912,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I124 A1306:I1313 A1305:H1305 A20:H1302 A69:I1304">

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -9108,6 +9108,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9131,21 +9146,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10088,127 +10088,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10221,12 +10221,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10239,12 +10239,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10257,12 +10257,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10275,60 +10275,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -12974,7 +12974,7 @@
         <v>15</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I123" s="31"/>
     </row>
@@ -12999,7 +12999,7 @@
         <v>15</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I124" s="31"/>
     </row>
@@ -39958,7 +39958,7 @@
       <c r="B1197" s="30" t="s">
         <v>1208</v>
       </c>
-      <c r="C1197" s="31" t="s">
+      <c r="C1197" s="20" t="s">
         <v>1699</v>
       </c>
       <c r="D1197" s="29"/>
@@ -41583,7 +41583,7 @@
       <c r="I1261" s="31"/>
     </row>
     <row r="1262" spans="1:9" ht="75">
-      <c r="A1262" s="29" t="s">
+      <c r="A1262" s="22" t="s">
         <v>1054</v>
       </c>
       <c r="B1262" s="30" t="s">
@@ -41603,7 +41603,7 @@
         <v>15</v>
       </c>
       <c r="H1262" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1262" s="31"/>
     </row>
@@ -41628,7 +41628,7 @@
         <v>15</v>
       </c>
       <c r="H1263" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1263" s="31"/>
     </row>
@@ -42900,11 +42900,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -42912,6 +42907,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I124 A1306:I1313 A1305:H1305 A20:H1302 A69:I1304">

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -9108,21 +9108,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9146,6 +9131,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10088,127 +10088,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10221,12 +10221,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10239,12 +10239,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10257,12 +10257,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10275,60 +10275,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -14853,13 +14853,13 @@
         <v>19</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G196" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I196" s="31"/>
     </row>
@@ -14878,13 +14878,13 @@
         <v>19</v>
       </c>
       <c r="F197" s="22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G197" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H197" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I197" s="31"/>
     </row>
@@ -15409,7 +15409,7 @@
         <v>15</v>
       </c>
       <c r="H218" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I218" s="31"/>
     </row>
@@ -15434,7 +15434,7 @@
         <v>15</v>
       </c>
       <c r="H219" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I219" s="31"/>
     </row>
@@ -15534,7 +15534,7 @@
         <v>15</v>
       </c>
       <c r="H223" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I223" s="31"/>
     </row>
@@ -15584,7 +15584,7 @@
         <v>15</v>
       </c>
       <c r="H225" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I225" s="31"/>
     </row>
@@ -15634,7 +15634,7 @@
         <v>15</v>
       </c>
       <c r="H227" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I227" s="31"/>
     </row>
@@ -42900,6 +42900,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -42907,11 +42912,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I124 A1306:I1313 A1305:H1305 A20:H1302 A69:I1304">

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -9108,6 +9108,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9131,21 +9146,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10088,127 +10088,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10221,12 +10221,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10239,12 +10239,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10257,12 +10257,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10275,60 +10275,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -10708,7 +10708,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I33" s="24"/>
     </row>
@@ -10983,7 +10983,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="24"/>
     </row>
@@ -11008,7 +11008,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I45" s="24"/>
     </row>
@@ -11033,7 +11033,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="24"/>
     </row>
@@ -11133,7 +11133,7 @@
         <v>15</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I50" s="24"/>
     </row>
@@ -11183,7 +11183,7 @@
         <v>15</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I52" s="24"/>
     </row>
@@ -11558,7 +11558,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I67" s="24"/>
     </row>
@@ -42900,11 +42900,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -42912,6 +42907,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I124 A1306:I1313 A1305:H1305 A20:H1302 A69:I1304">

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -9108,21 +9108,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9146,6 +9131,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10034,7 +10034,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -10088,127 +10090,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10221,12 +10223,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10239,12 +10241,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10257,12 +10259,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10275,60 +10277,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -10558,7 +10560,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="24"/>
     </row>
@@ -10583,7 +10585,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="24"/>
     </row>
@@ -10608,7 +10610,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" s="24"/>
     </row>
@@ -10633,7 +10635,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" s="24"/>
     </row>
@@ -10758,7 +10760,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" s="24"/>
     </row>
@@ -10783,7 +10785,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" s="24"/>
     </row>
@@ -42900,6 +42902,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -42907,11 +42914,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I124 A1306:I1313 A1305:H1305 A20:H1302 A69:I1304">

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -9108,6 +9108,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9131,21 +9146,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10034,13 +10034,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -10090,127 +10088,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10223,12 +10221,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10241,12 +10239,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10259,12 +10257,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10277,60 +10275,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -20325,7 +20323,7 @@
         <v>15</v>
       </c>
       <c r="H414" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I414" s="31"/>
     </row>
@@ -20350,7 +20348,7 @@
         <v>15</v>
       </c>
       <c r="H415" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I415" s="31"/>
     </row>
@@ -20375,7 +20373,7 @@
         <v>15</v>
       </c>
       <c r="H416" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I416" s="31"/>
     </row>
@@ -20400,7 +20398,7 @@
         <v>15</v>
       </c>
       <c r="H417" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I417" s="31"/>
     </row>
@@ -20425,7 +20423,7 @@
         <v>15</v>
       </c>
       <c r="H418" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I418" s="31"/>
     </row>
@@ -21002,7 +21000,7 @@
         <v>15</v>
       </c>
       <c r="H441" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I441" s="31"/>
     </row>
@@ -21027,7 +21025,7 @@
         <v>15</v>
       </c>
       <c r="H442" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I442" s="31"/>
     </row>
@@ -21052,7 +21050,7 @@
         <v>15</v>
       </c>
       <c r="H443" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I443" s="31"/>
     </row>
@@ -21102,7 +21100,7 @@
         <v>15</v>
       </c>
       <c r="H445" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I445" s="31"/>
     </row>
@@ -21127,7 +21125,7 @@
         <v>15</v>
       </c>
       <c r="H446" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I446" s="31"/>
     </row>
@@ -21152,7 +21150,7 @@
         <v>15</v>
       </c>
       <c r="H447" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I447" s="31"/>
     </row>
@@ -21979,7 +21977,7 @@
         <v>15</v>
       </c>
       <c r="H480" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I480" s="31"/>
     </row>
@@ -22004,7 +22002,7 @@
         <v>15</v>
       </c>
       <c r="H481" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I481" s="31"/>
     </row>
@@ -22029,7 +22027,7 @@
         <v>15</v>
       </c>
       <c r="H482" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I482" s="31"/>
     </row>
@@ -22054,7 +22052,7 @@
         <v>15</v>
       </c>
       <c r="H483" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I483" s="31"/>
     </row>
@@ -22079,7 +22077,7 @@
         <v>15</v>
       </c>
       <c r="H484" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I484" s="31"/>
     </row>
@@ -22906,7 +22904,7 @@
         <v>15</v>
       </c>
       <c r="H517" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I517" s="31"/>
     </row>
@@ -22931,7 +22929,7 @@
         <v>15</v>
       </c>
       <c r="H518" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I518" s="31"/>
     </row>
@@ -22956,7 +22954,7 @@
         <v>15</v>
       </c>
       <c r="H519" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I519" s="31"/>
     </row>
@@ -22981,7 +22979,7 @@
         <v>15</v>
       </c>
       <c r="H520" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I520" s="31"/>
     </row>
@@ -23006,7 +23004,7 @@
         <v>15</v>
       </c>
       <c r="H521" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I521" s="31"/>
     </row>
@@ -24733,7 +24731,7 @@
         <v>15</v>
       </c>
       <c r="H590" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I590" s="31"/>
     </row>
@@ -24758,7 +24756,7 @@
         <v>15</v>
       </c>
       <c r="H591" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I591" s="31"/>
     </row>
@@ -24783,7 +24781,7 @@
         <v>15</v>
       </c>
       <c r="H592" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I592" s="31"/>
     </row>
@@ -24808,7 +24806,7 @@
         <v>15</v>
       </c>
       <c r="H593" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I593" s="31"/>
     </row>
@@ -24833,7 +24831,7 @@
         <v>15</v>
       </c>
       <c r="H594" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I594" s="31"/>
     </row>
@@ -25489,7 +25487,7 @@
         <v>15</v>
       </c>
       <c r="H620" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I620" s="31"/>
     </row>
@@ -25514,7 +25512,7 @@
         <v>15</v>
       </c>
       <c r="H621" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I621" s="31"/>
     </row>
@@ -25539,7 +25537,7 @@
         <v>15</v>
       </c>
       <c r="H622" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I622" s="31"/>
     </row>
@@ -25564,7 +25562,7 @@
         <v>15</v>
       </c>
       <c r="H623" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I623" s="31"/>
     </row>
@@ -25589,7 +25587,7 @@
         <v>15</v>
       </c>
       <c r="H624" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I624" s="31"/>
     </row>
@@ -26372,7 +26370,7 @@
         <v>15</v>
       </c>
       <c r="H655" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I655" s="31"/>
     </row>
@@ -26397,7 +26395,7 @@
         <v>15</v>
       </c>
       <c r="H656" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I656" s="31"/>
     </row>
@@ -26422,7 +26420,7 @@
         <v>15</v>
       </c>
       <c r="H657" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I657" s="31"/>
     </row>
@@ -26447,7 +26445,7 @@
         <v>15</v>
       </c>
       <c r="H658" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I658" s="31"/>
     </row>
@@ -26472,7 +26470,7 @@
         <v>15</v>
       </c>
       <c r="H659" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I659" s="31"/>
     </row>
@@ -27453,7 +27451,7 @@
         <v>15</v>
       </c>
       <c r="H698" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I698" s="31"/>
     </row>
@@ -27478,7 +27476,7 @@
         <v>15</v>
       </c>
       <c r="H699" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I699" s="31"/>
     </row>
@@ -27503,7 +27501,7 @@
         <v>15</v>
       </c>
       <c r="H700" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I700" s="31"/>
     </row>
@@ -27528,7 +27526,7 @@
         <v>15</v>
       </c>
       <c r="H701" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I701" s="31"/>
     </row>
@@ -27553,7 +27551,7 @@
         <v>15</v>
       </c>
       <c r="H702" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I702" s="31"/>
     </row>
@@ -28359,7 +28357,7 @@
         <v>15</v>
       </c>
       <c r="H734" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I734" s="31"/>
     </row>
@@ -28384,7 +28382,7 @@
         <v>15</v>
       </c>
       <c r="H735" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I735" s="31"/>
     </row>
@@ -28409,7 +28407,7 @@
         <v>15</v>
       </c>
       <c r="H736" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I736" s="31"/>
     </row>
@@ -28434,7 +28432,7 @@
         <v>15</v>
       </c>
       <c r="H737" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I737" s="31"/>
     </row>
@@ -28459,7 +28457,7 @@
         <v>15</v>
       </c>
       <c r="H738" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I738" s="31"/>
     </row>
@@ -29323,7 +29321,7 @@
         <v>15</v>
       </c>
       <c r="H772" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I772" s="31"/>
     </row>
@@ -29348,7 +29346,7 @@
         <v>15</v>
       </c>
       <c r="H773" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I773" s="31"/>
     </row>
@@ -29373,7 +29371,7 @@
         <v>15</v>
       </c>
       <c r="H774" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I774" s="31"/>
     </row>
@@ -29398,7 +29396,7 @@
         <v>15</v>
       </c>
       <c r="H775" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I775" s="31"/>
     </row>
@@ -29423,7 +29421,7 @@
         <v>15</v>
       </c>
       <c r="H776" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I776" s="31"/>
     </row>
@@ -30150,7 +30148,7 @@
         <v>15</v>
       </c>
       <c r="H805" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I805" s="31"/>
     </row>
@@ -30175,7 +30173,7 @@
         <v>15</v>
       </c>
       <c r="H806" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I806" s="31"/>
     </row>
@@ -30200,7 +30198,7 @@
         <v>15</v>
       </c>
       <c r="H807" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I807" s="31"/>
     </row>
@@ -30225,7 +30223,7 @@
         <v>15</v>
       </c>
       <c r="H808" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I808" s="31"/>
     </row>
@@ -30250,7 +30248,7 @@
         <v>15</v>
       </c>
       <c r="H809" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I809" s="31"/>
     </row>
@@ -31406,7 +31404,7 @@
         <v>15</v>
       </c>
       <c r="H855" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I855" s="31"/>
     </row>
@@ -31431,7 +31429,7 @@
         <v>15</v>
       </c>
       <c r="H856" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I856" s="31"/>
     </row>
@@ -31456,7 +31454,7 @@
         <v>15</v>
       </c>
       <c r="H857" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I857" s="31"/>
     </row>
@@ -31481,7 +31479,7 @@
         <v>15</v>
       </c>
       <c r="H858" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I858" s="31"/>
     </row>
@@ -31506,7 +31504,7 @@
         <v>15</v>
       </c>
       <c r="H859" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I859" s="31"/>
     </row>
@@ -32212,7 +32210,7 @@
         <v>15</v>
       </c>
       <c r="H887" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I887" s="31"/>
     </row>
@@ -32237,7 +32235,7 @@
         <v>15</v>
       </c>
       <c r="H888" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I888" s="31"/>
     </row>
@@ -32262,7 +32260,7 @@
         <v>15</v>
       </c>
       <c r="H889" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I889" s="31"/>
     </row>
@@ -32287,7 +32285,7 @@
         <v>15</v>
       </c>
       <c r="H890" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I890" s="31"/>
     </row>
@@ -32312,7 +32310,7 @@
         <v>15</v>
       </c>
       <c r="H891" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I891" s="31"/>
     </row>
@@ -33589,7 +33587,7 @@
         <v>15</v>
       </c>
       <c r="H942" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I942" s="31"/>
     </row>
@@ -33614,7 +33612,7 @@
         <v>15</v>
       </c>
       <c r="H943" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I943" s="31"/>
     </row>
@@ -33639,7 +33637,7 @@
         <v>15</v>
       </c>
       <c r="H944" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I944" s="31"/>
     </row>
@@ -33664,7 +33662,7 @@
         <v>15</v>
       </c>
       <c r="H945" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I945" s="31"/>
     </row>
@@ -33689,7 +33687,7 @@
         <v>15</v>
       </c>
       <c r="H946" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I946" s="31"/>
     </row>
@@ -34716,7 +34714,7 @@
         <v>15</v>
       </c>
       <c r="H987" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I987" s="31"/>
     </row>
@@ -34741,7 +34739,7 @@
         <v>15</v>
       </c>
       <c r="H988" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I988" s="31"/>
     </row>
@@ -34766,7 +34764,7 @@
         <v>15</v>
       </c>
       <c r="H989" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I989" s="31"/>
     </row>
@@ -34791,7 +34789,7 @@
         <v>15</v>
       </c>
       <c r="H990" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I990" s="31"/>
     </row>
@@ -34816,7 +34814,7 @@
         <v>15</v>
       </c>
       <c r="H991" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I991" s="31"/>
     </row>
@@ -36093,7 +36091,7 @@
         <v>15</v>
       </c>
       <c r="H1042" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1042" s="31"/>
     </row>
@@ -36118,7 +36116,7 @@
         <v>15</v>
       </c>
       <c r="H1043" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1043" s="31"/>
     </row>
@@ -36143,7 +36141,7 @@
         <v>15</v>
       </c>
       <c r="H1044" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1044" s="31"/>
     </row>
@@ -36168,7 +36166,7 @@
         <v>15</v>
       </c>
       <c r="H1045" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1045" s="31"/>
     </row>
@@ -36193,7 +36191,7 @@
         <v>15</v>
       </c>
       <c r="H1046" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1046" s="31"/>
     </row>
@@ -37045,7 +37043,7 @@
         <v>15</v>
       </c>
       <c r="H1080" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1080" s="31"/>
     </row>
@@ -37070,7 +37068,7 @@
         <v>15</v>
       </c>
       <c r="H1081" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1081" s="31"/>
     </row>
@@ -37095,7 +37093,7 @@
         <v>15</v>
       </c>
       <c r="H1082" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1082" s="31"/>
     </row>
@@ -37120,7 +37118,7 @@
         <v>15</v>
       </c>
       <c r="H1083" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1083" s="31"/>
     </row>
@@ -37145,7 +37143,7 @@
         <v>15</v>
       </c>
       <c r="H1084" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1084" s="31"/>
     </row>
@@ -37697,7 +37695,7 @@
         <v>15</v>
       </c>
       <c r="H1106" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1106" s="31"/>
     </row>
@@ -37722,7 +37720,7 @@
         <v>15</v>
       </c>
       <c r="H1107" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1107" s="31"/>
     </row>
@@ -37747,7 +37745,7 @@
         <v>15</v>
       </c>
       <c r="H1108" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1108" s="31"/>
     </row>
@@ -37772,7 +37770,7 @@
         <v>15</v>
       </c>
       <c r="H1109" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1109" s="31"/>
     </row>
@@ -37797,7 +37795,7 @@
         <v>15</v>
       </c>
       <c r="H1110" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1110" s="31"/>
     </row>
@@ -38374,7 +38372,7 @@
         <v>15</v>
       </c>
       <c r="H1133" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1133" s="31"/>
     </row>
@@ -38399,7 +38397,7 @@
         <v>15</v>
       </c>
       <c r="H1134" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1134" s="31"/>
     </row>
@@ -38424,7 +38422,7 @@
         <v>15</v>
       </c>
       <c r="H1135" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1135" s="31"/>
     </row>
@@ -38449,7 +38447,7 @@
         <v>15</v>
       </c>
       <c r="H1136" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1136" s="31"/>
     </row>
@@ -38474,7 +38472,7 @@
         <v>15</v>
       </c>
       <c r="H1137" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1137" s="31"/>
     </row>
@@ -42902,11 +42900,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -42914,6 +42907,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I124 A1306:I1313 A1305:H1305 A20:H1302 A69:I1304">
@@ -42970,7 +42968,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C3 B19:B25 B78:B122 B125:B168 B171:B195 B201:B216 B229:B239 B241 B243 B245 B251:B252 B254:B260 B272:B273 B275:B281 B283:B286 B300:B309 B321:B327 B335:B342 B329:B333 B344:B356 B362:B369 B373:B375 B377:B402 B404:B412 B420:B429 B431:B438 B449:B457 B475:B477 B486:B514 B523:B588 B595:B618 B625:B633 B660:B696 B703:B732 B739:B770 B777:B803 B810:B838 B860:B885 B892:B905 B911:B940 B947:B972 B992:B1025 B1305:B1315 B1047:B1078 B1085:B1104 B1111:B1131 B1281:B1290 B1301:B1304 B1138:B1234 B1239:B1254 B1256:B1257 B1259:B1264 B1270:B1274 B458:B469 B634:B653 B839:B853 B973:B985 B1026:B1040" numberStoredAsText="1"/>
+    <ignoredError sqref="C3 B19:B328 B334:B343 B329:B333 B344:B448 B449:B457 B474:B624 B625:B633 B659:B809 B810:B838 B859:B946 B947:B972 B991:B1025 B1305:B1315 B1046:B1137 B1280:B1300 B1301:B1304 B1138:B1279 B458:B473 B634:B658 B839:B858 B973:B990 B1026:B1045" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -9108,21 +9108,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9146,6 +9131,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10088,127 +10088,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10221,12 +10221,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10239,12 +10239,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10257,12 +10257,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10275,60 +10275,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -32604,13 +32604,13 @@
         <v>19</v>
       </c>
       <c r="F903" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G903" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H903" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I903" s="31"/>
     </row>
@@ -32679,13 +32679,13 @@
         <v>19</v>
       </c>
       <c r="F906" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G906" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H906" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I906" s="31"/>
     </row>
@@ -32729,13 +32729,13 @@
         <v>19</v>
       </c>
       <c r="F908" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G908" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H908" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I908" s="31"/>
     </row>
@@ -32754,13 +32754,13 @@
         <v>19</v>
       </c>
       <c r="F909" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G909" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H909" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I909" s="31"/>
     </row>
@@ -40999,7 +40999,7 @@
         <v>15</v>
       </c>
       <c r="H1238" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1238" s="31"/>
     </row>
@@ -42028,7 +42028,7 @@
         <v>15</v>
       </c>
       <c r="H1279" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1279" s="31"/>
     </row>
@@ -42900,6 +42900,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -42907,11 +42912,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I124 A1306:I1313 A1305:H1305 A20:H1302 A69:I1304">

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -8823,9 +8823,6 @@
     <t>MS-OXCMAPIHTTP_R2239</t>
   </si>
   <si>
-    <t>Verified by requirement: MS-OXCMAPIHTTP_R2237.</t>
-  </si>
-  <si>
     <t>MS-OXCMAPIHTTP_R590:i</t>
   </si>
   <si>
@@ -8911,6 +8908,9 @@
   </si>
   <si>
     <t>MS-OXCMAPIHTTP_R2004:c</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXCMAPIHTTP_R2237.</t>
   </si>
 </sst>
 </file>
@@ -9183,21 +9183,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9222,55 +9207,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <b val="0"/>
@@ -9609,6 +9565,80 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9738,34 +9768,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1325" tableType="xml" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1325" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1325"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="24">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="23">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="22">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="21">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="20">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="19">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="18">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="17">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="16">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -9774,12 +9804,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="10"/>
-    <tableColumn id="2" name="Test" dataDxfId="9"/>
-    <tableColumn id="3" name="Description" dataDxfId="8"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10163,127 +10193,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10296,12 +10326,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10314,12 +10344,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10332,12 +10362,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10350,60 +10380,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -10714,16 +10744,16 @@
     </row>
     <row r="31" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A31" s="22" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>19</v>
@@ -10741,16 +10771,16 @@
     </row>
     <row r="32" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A32" s="22" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>19</v>
@@ -10768,16 +10798,16 @@
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A33" s="22" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>19</v>
@@ -10795,16 +10825,16 @@
     </row>
     <row r="34" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A34" s="22" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>19</v>
@@ -10822,16 +10852,16 @@
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A35" s="22" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>19</v>
@@ -10849,16 +10879,16 @@
     </row>
     <row r="36" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A36" s="22" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>19</v>
@@ -10876,16 +10906,16 @@
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A37" s="22" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>19</v>
@@ -10903,16 +10933,16 @@
     </row>
     <row r="38" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A38" s="22" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>19</v>
@@ -10930,16 +10960,16 @@
     </row>
     <row r="39" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A39" s="22" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>19</v>
@@ -10957,16 +10987,16 @@
     </row>
     <row r="40" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A40" s="22" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>19</v>
@@ -10984,16 +11014,16 @@
     </row>
     <row r="41" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A41" s="22" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>19</v>
@@ -11011,16 +11041,16 @@
     </row>
     <row r="42" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A42" s="22" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>1099</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>19</v>
@@ -11619,7 +11649,7 @@
         <v>1871</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="22" t="s">
@@ -15608,7 +15638,7 @@
         <v>15</v>
       </c>
       <c r="H222" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I222" s="31"/>
     </row>
@@ -25990,7 +26020,7 @@
       </c>
       <c r="I636" s="31"/>
     </row>
-    <row r="637" spans="1:9" ht="30">
+    <row r="637" spans="1:9" ht="45">
       <c r="A637" s="29" t="s">
         <v>504</v>
       </c>
@@ -26013,8 +26043,8 @@
       <c r="H637" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I637" s="20" t="s">
-        <v>2846</v>
+      <c r="I637" s="31" t="s">
+        <v>2875</v>
       </c>
     </row>
     <row r="638" spans="1:9" ht="30">
@@ -33003,13 +33033,13 @@
         <v>19</v>
       </c>
       <c r="F915" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G915" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H915" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I915" s="31"/>
     </row>
@@ -43068,10 +43098,10 @@
         <v>1223</v>
       </c>
       <c r="C1317" s="20" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="D1317" s="22" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="E1317" s="22" t="s">
         <v>22</v>
@@ -43086,7 +43116,7 @@
         <v>20</v>
       </c>
       <c r="I1317" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1318" spans="1:9" ht="30">
@@ -43299,6 +43329,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -43306,41 +43341,58 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I20:I136 A1318:I1325 A1317:H1317 A81:I1316 A20:H1314">
-    <cfRule type="expression" dxfId="7" priority="53">
+  <conditionalFormatting sqref="I20:I136 A1318:I1325 A1317:H1317 A81:I636 A638:I1316 A20:H1314">
+    <cfRule type="expression" dxfId="32" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="31" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="30" priority="67">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I136 A1318:I1325 A1317:H1317 A81:I1316 A20:H1314">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="I20:I136 A1318:I1325 A1317:H1317 A81:I636 A638:I1316 A20:H1314">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F1325">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I637">
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I637">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -43367,7 +43419,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C3 B43:B1327 B19:B30" numberStoredAsText="1"/>
+    <ignoredError sqref="C3 B42:B1327 B19:B41" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB5EB22-C36D-491F-B2B5-9E770D6BA389}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -20,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmpD89A" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmpD89A" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-xinwli\AppData\Local\Temp\tmpD89A.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -8943,7 +8944,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -9807,34 +9808,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1325" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I1325"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1325" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1325" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -9843,12 +9844,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9930,6 +9931,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -9965,6 +9983,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10140,13 +10175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1313" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1319" sqref="C1319"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -43413,20 +43446,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1325">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1325" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1325">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1325" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1325">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1325" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1325">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1325" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -43436,7 +43469,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1316:B1327 B19:B1208 B1209:B1315" numberStoredAsText="1"/>
+    <ignoredError sqref="B1316:B1327 B19:B1208 B1209:B1315 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCMAPIHTTP/MS-OXCMAPIHTTP_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526E8EA7-1D1E-4134-8639-C2EE15945663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429F8AC5-B39D-4E85-9DA0-B88DE69E580E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9224,21 +9224,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9262,6 +9247,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10180,8 +10180,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10231,132 +10231,132 @@
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43305</v>
+        <v>43445</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10369,12 +10369,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10387,12 +10387,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10405,12 +10405,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10423,60 +10423,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="41" t="s">
         <v>2862</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -43382,6 +43382,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -43389,11 +43394,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I136 A1318:I1325 A81:I636 A638:I1314 A20:H1312 A1315:H1317">
